--- a/datos/semaforo/20agosto/Reportesdecovid19-21082020semaforo.xlsx
+++ b/datos/semaforo/20agosto/Reportesdecovid19-21082020semaforo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imolina\Documents\reportes covid sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\COVID-19\datos\semaforo\20agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF95F16-E273-4BBC-8735-08179DFE67E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B080EF2-3D64-4A07-96EB-D5FCC45C4161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A6B39F88-9DA0-4611-90C4-F755D28AE9C8}"/>
+    <workbookView xWindow="35730" yWindow="8490" windowWidth="18435" windowHeight="5625" xr2:uid="{A6B39F88-9DA0-4611-90C4-F755D28AE9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaforo" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Semaforo!$A$6:$J$347</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1089,9 +1089,6 @@
   </si>
   <si>
     <t>% de Positividad</t>
-  </si>
-  <si>
-    <t>Tasa por 100K Habitantes</t>
   </si>
   <si>
     <t>Fuente: Sistema de información Gerencial en Salud -SIGSA</t>
@@ -1172,6 +1169,9 @@
   </si>
   <si>
     <t>Imagen: 07 al 20 de Agosto del 2020 semaforo.</t>
+  </si>
+  <si>
+    <t>Tasa por 100,000 Habitantes</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1305,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1333,9 +1333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1348,9 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1370,6 +1364,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1401,7 +1405,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704021</xdr:colOff>
+      <xdr:colOff>707831</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>113594</xdr:rowOff>
     </xdr:to>
@@ -1445,9 +1449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>671448</xdr:colOff>
+      <xdr:colOff>667638</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>177495</xdr:rowOff>
+      <xdr:rowOff>173685</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1787,77 +1791,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9911951E-3EF5-44D1-A9F2-6E2BDFD38D7E}">
   <dimension ref="A1:V356"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="28" customWidth="1"/>
     <col min="8" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+    <row r="1" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="2"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1874,16 +1879,16 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>369</v>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="2"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1900,43 +1905,43 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="36" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:22" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8">
         <f>SUM(C8:C347)</f>
         <v>16858333</v>
@@ -1949,11 +1954,11 @@
         <f>SUM(E8:E347)</f>
         <v>11971</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="30">
         <f>(E7/C7)*100000</f>
         <v>71.009393396132353</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="27">
         <f>((D7/C7)/14)*1000</f>
         <v>0.19246522518821152</v>
       </c>
@@ -1964,7 +1969,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1980,10 +1985,10 @@
       <c r="E8" s="6">
         <v>2291</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="29">
         <v>190.02</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="27">
         <f>((D8/C8)/14)*1000</f>
         <v>0.74108295152562731</v>
       </c>
@@ -1994,10 +1999,10 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2013,10 +2018,10 @@
       <c r="E9" s="6">
         <v>187</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="29">
         <v>217.06</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="27">
         <f t="shared" ref="G9:G72" si="0">((D9/C9)/14)*1000</f>
         <v>0.63842135809634359</v>
       </c>
@@ -2027,15 +2032,15 @@
         <v>8.5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2051,10 +2056,10 @@
       <c r="E10" s="6">
         <v>141</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="29">
         <v>160.38999999999999</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="27">
         <f t="shared" si="0"/>
         <v>0.53543803543803548</v>
       </c>
@@ -2065,19 +2070,19 @@
         <v>8.5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="M10" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="23" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,10 +2098,10 @@
       <c r="E11" s="6">
         <v>18</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>216.42</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>0.395060031948333</v>
       </c>
@@ -2107,19 +2112,19 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L11" s="19">
+        <v>359</v>
+      </c>
+      <c r="L11" s="18">
         <v>49</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <v>85</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="F12" s="1">
         <v>86.71</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>0.26418826462180434</v>
       </c>
@@ -2149,10 +2154,10 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2171,7 +2176,7 @@
       <c r="F13" s="1">
         <v>117.48</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>0.27756684783820607</v>
       </c>
@@ -2182,13 +2187,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2212,7 @@
       <c r="F14" s="1">
         <v>59.46</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>0.17967671259130844</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2226,7 +2231,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2250,7 @@
       <c r="F15" s="1">
         <v>162.77000000000001</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>0.5163309336100963</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>8.5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2264,7 +2269,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2288,7 @@
       <c r="F16" s="1">
         <v>60.41</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>9.8074855960728222E-2</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2302,7 +2307,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2326,7 @@
       <c r="F17" s="1">
         <v>48.04</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>0.11094758526450936</v>
       </c>
@@ -2332,7 +2337,7 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2340,7 +2345,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2364,7 @@
       <c r="F18" s="1">
         <v>62.52</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="27">
         <f t="shared" si="0"/>
         <v>0.13211661989862375</v>
       </c>
@@ -2370,11 +2375,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="F19" s="1">
         <v>16.71</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="27">
         <f t="shared" si="0"/>
         <v>6.3644102180606052E-2</v>
       </c>
@@ -2404,11 +2409,11 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2427,7 +2432,7 @@
       <c r="F20" s="1">
         <v>256.23</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="27">
         <f t="shared" si="0"/>
         <v>0.64288494328712287</v>
       </c>
@@ -2438,11 +2443,11 @@
         <v>9.5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2466,7 @@
       <c r="F21" s="1">
         <v>79.27</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="27">
         <f t="shared" si="0"/>
         <v>0.23712094523183655</v>
       </c>
@@ -2472,11 +2477,11 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2500,7 @@
       <c r="F22" s="1">
         <v>111.3</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
         <v>0.36780806077812933</v>
       </c>
@@ -2506,11 +2511,11 @@
         <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +2534,7 @@
       <c r="F23" s="1">
         <v>83.02</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="27">
         <f t="shared" si="0"/>
         <v>0.27008731091724075</v>
       </c>
@@ -2540,11 +2545,11 @@
         <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2568,7 @@
       <c r="F24" s="1">
         <v>154.72999999999999</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="27">
         <f t="shared" si="0"/>
         <v>0.53147647307889923</v>
       </c>
@@ -2574,11 +2579,11 @@
         <v>8.5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2602,7 @@
       <c r="F25" s="1">
         <v>233.32</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="27">
         <f t="shared" si="0"/>
         <v>0.35183882078441542</v>
       </c>
@@ -2608,11 +2613,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="F26" s="1">
         <v>47.71</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="27">
         <f t="shared" si="0"/>
         <v>0.11926532559433886</v>
       </c>
@@ -2642,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2669,7 @@
       <c r="F27" s="1">
         <v>64.12</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="27">
         <f t="shared" si="0"/>
         <v>0.13870133676684565</v>
       </c>
@@ -2675,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2702,7 @@
       <c r="F28" s="1">
         <v>229.27</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="27">
         <f t="shared" si="0"/>
         <v>0.27294066269992906</v>
       </c>
@@ -2708,10 +2713,10 @@
         <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2735,7 @@
       <c r="F29" s="1">
         <v>37.020000000000003</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="27">
         <f t="shared" si="0"/>
         <v>6.8742332585980795E-2</v>
       </c>
@@ -2741,10 +2746,10 @@
         <v>9</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2768,7 @@
       <c r="F30" s="1">
         <v>73.88</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="27">
         <f t="shared" si="0"/>
         <v>0.23747955037205132</v>
       </c>
@@ -2774,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2801,7 @@
       <c r="F31" s="1">
         <v>104.77</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="27">
         <f t="shared" si="0"/>
         <v>0.17348177931076708</v>
       </c>
@@ -2807,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +2834,7 @@
       <c r="F32" s="1">
         <v>77.23</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="27">
         <f t="shared" si="0"/>
         <v>0.16224916279432</v>
       </c>
@@ -2840,10 +2845,10 @@
         <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="F33" s="1">
         <v>277.69</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="27">
         <f t="shared" si="0"/>
         <v>0.56689342403628118</v>
       </c>
@@ -2873,10 +2878,10 @@
         <v>9.5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2900,7 @@
       <c r="F34" s="1">
         <v>177.03</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="27">
         <f t="shared" si="0"/>
         <v>0.4502837404391809</v>
       </c>
@@ -2906,11 +2911,11 @@
         <v>9.5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +2934,7 @@
       <c r="F35" s="1">
         <v>87.68</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="27">
         <f t="shared" si="0"/>
         <v>0.261562152324956</v>
       </c>
@@ -2940,10 +2945,10 @@
         <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2962,7 +2967,7 @@
       <c r="F36" s="1">
         <v>141.44</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="27">
         <f t="shared" si="0"/>
         <v>0.21152795799749322</v>
       </c>
@@ -2973,10 +2978,10 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2995,7 +3000,7 @@
       <c r="F37" s="1">
         <v>162.88</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="27">
         <f t="shared" si="0"/>
         <v>0.21244954323348203</v>
       </c>
@@ -3006,10 +3011,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3028,7 +3033,7 @@
       <c r="F38" s="1">
         <v>90.64</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="27">
         <f t="shared" si="0"/>
         <v>0.22364956859175322</v>
       </c>
@@ -3039,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3066,7 @@
       <c r="F39" s="1">
         <v>93.91</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="27">
         <f t="shared" si="0"/>
         <v>0.21800010061543104</v>
       </c>
@@ -3072,11 +3077,11 @@
         <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3100,7 @@
       <c r="F40" s="1">
         <v>203.9</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="27">
         <f t="shared" si="0"/>
         <v>0.57002234889385528</v>
       </c>
@@ -3106,10 +3111,10 @@
         <v>9.5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -3128,7 +3133,7 @@
       <c r="F41" s="1">
         <v>128.53</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="27">
         <f t="shared" si="0"/>
         <v>0.3714152171735719</v>
       </c>
@@ -3139,10 +3144,10 @@
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3161,7 +3166,7 @@
       <c r="F42" s="1">
         <v>39.450000000000003</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="27">
         <f t="shared" si="0"/>
         <v>0.16907504677742963</v>
       </c>
@@ -3172,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -3197,7 +3202,7 @@
       <c r="F43" s="1">
         <v>41.55</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="27">
         <f t="shared" si="0"/>
         <v>0.12681863316496136</v>
       </c>
@@ -3208,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3235,7 @@
       <c r="F44" s="1">
         <v>142.19999999999999</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44" s="27">
         <f t="shared" si="0"/>
         <v>0.24235425777226538</v>
       </c>
@@ -3241,10 +3246,10 @@
         <v>10</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3263,7 +3268,7 @@
       <c r="F45" s="1">
         <v>85.35</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="27">
         <f t="shared" si="0"/>
         <v>0.20634607989345038</v>
       </c>
@@ -3274,10 +3279,10 @@
         <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3296,7 +3301,7 @@
       <c r="F46" s="1">
         <v>75.569999999999993</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="27">
         <f t="shared" si="0"/>
         <v>0.18765198525518101</v>
       </c>
@@ -3307,10 +3312,10 @@
         <v>10</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +3334,7 @@
       <c r="F47" s="1">
         <v>64.319999999999993</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="27">
         <f t="shared" si="0"/>
         <v>0.14931201617163992</v>
       </c>
@@ -3340,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3367,7 @@
       <c r="F48" s="1">
         <v>44.64</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G48" s="27">
         <f t="shared" si="0"/>
         <v>9.5663265306122444E-2</v>
       </c>
@@ -3373,10 +3378,10 @@
         <v>9</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3395,7 +3400,7 @@
       <c r="F49" s="1">
         <v>106.4</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G49" s="27">
         <f t="shared" si="0"/>
         <v>0.22990806210937798</v>
       </c>
@@ -3406,10 +3411,10 @@
         <v>10</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3428,7 +3433,7 @@
       <c r="F50" s="1">
         <v>9.1</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="27">
         <f t="shared" si="0"/>
         <v>3.4670908074421102E-2</v>
       </c>
@@ -3439,10 +3444,10 @@
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -3461,7 +3466,7 @@
       <c r="F51" s="1">
         <v>7.6</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="27">
         <f t="shared" si="0"/>
         <v>2.0939290018473108E-2</v>
       </c>
@@ -3472,10 +3477,10 @@
         <v>7</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="F52" s="1">
         <v>30.94</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="27">
         <f t="shared" si="0"/>
         <v>7.8581988026069582E-2</v>
       </c>
@@ -3505,10 +3510,10 @@
         <v>9</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -3527,7 +3532,7 @@
       <c r="F53" s="1">
         <v>34.53</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G53" s="27">
         <f t="shared" si="0"/>
         <v>6.166672833339501E-2</v>
       </c>
@@ -3538,10 +3543,10 @@
         <v>9</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +3565,7 @@
       <c r="F54" s="1">
         <v>43.16</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="27">
         <f t="shared" si="0"/>
         <v>7.346661401559329E-2</v>
       </c>
@@ -3571,10 +3576,10 @@
         <v>9</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -3593,7 +3598,7 @@
       <c r="F55" s="1">
         <v>27.31</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="27">
         <f t="shared" si="0"/>
         <v>6.777294011336564E-2</v>
       </c>
@@ -3604,10 +3609,10 @@
         <v>9</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -3626,7 +3631,7 @@
       <c r="F56" s="1">
         <v>63.66</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="27">
         <f t="shared" si="0"/>
         <v>9.7438029413293145E-2</v>
       </c>
@@ -3637,10 +3642,10 @@
         <v>10</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -3659,7 +3664,7 @@
       <c r="F57" s="1">
         <v>45.76</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="27">
         <f t="shared" si="0"/>
         <v>9.0790567949476847E-2</v>
       </c>
@@ -3670,10 +3675,10 @@
         <v>9</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -3692,7 +3697,7 @@
       <c r="F58" s="1">
         <v>93.93</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="27">
         <f t="shared" si="0"/>
         <v>0.161026274120394</v>
       </c>
@@ -3703,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -3725,7 +3730,7 @@
       <c r="F59" s="1">
         <v>10.7</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="27">
         <f t="shared" si="0"/>
         <v>6.6224828197513005E-2</v>
       </c>
@@ -3736,10 +3741,10 @@
         <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +3763,7 @@
       <c r="F60" s="1">
         <v>48.42</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="27">
         <f t="shared" si="0"/>
         <v>7.6090866329099907E-2</v>
       </c>
@@ -3769,10 +3774,10 @@
         <v>9</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="F61" s="1">
         <v>46.25</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="27">
         <f t="shared" si="0"/>
         <v>0.1259617489272602</v>
       </c>
@@ -3802,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -3824,7 +3829,7 @@
       <c r="F62" s="1">
         <v>40.619999999999997</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="27">
         <f t="shared" si="0"/>
         <v>9.0677615686502094E-2</v>
       </c>
@@ -3835,10 +3840,10 @@
         <v>9</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -3857,7 +3862,7 @@
       <c r="F63" s="1">
         <v>49.17</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="27">
         <f t="shared" si="0"/>
         <v>0.1279407559040896</v>
       </c>
@@ -3868,10 +3873,10 @@
         <v>9</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -3890,7 +3895,7 @@
       <c r="F64" s="1">
         <v>66.319999999999993</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="27">
         <f t="shared" si="0"/>
         <v>0.19895658325227694</v>
       </c>
@@ -3901,10 +3906,10 @@
         <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -3923,7 +3928,7 @@
       <c r="F65" s="1">
         <v>110.19</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="27">
         <f t="shared" si="0"/>
         <v>0.27826855883552132</v>
       </c>
@@ -3934,10 +3939,10 @@
         <v>10</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -3956,7 +3961,7 @@
       <c r="F66" s="1">
         <v>17.739999999999998</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="27">
         <f t="shared" si="0"/>
         <v>5.9917981501475481E-2</v>
       </c>
@@ -3967,10 +3972,10 @@
         <v>7</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -3989,7 +3994,7 @@
       <c r="F67" s="1">
         <v>35.32</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="27">
         <f t="shared" si="0"/>
         <v>4.7658295627211203E-2</v>
       </c>
@@ -4000,10 +4005,10 @@
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4027,7 @@
       <c r="F68" s="1">
         <v>15.58</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="27">
         <f t="shared" si="0"/>
         <v>0.169690495663156</v>
       </c>
@@ -4033,10 +4038,10 @@
         <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -4055,7 +4060,7 @@
       <c r="F69" s="1">
         <v>35.83</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="27">
         <f t="shared" si="0"/>
         <v>9.1843402481879735E-2</v>
       </c>
@@ -4066,10 +4071,10 @@
         <v>9</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -4088,7 +4093,7 @@
       <c r="F70" s="1">
         <v>66.78</v>
       </c>
-      <c r="G70" s="21">
+      <c r="G70" s="27">
         <f t="shared" si="0"/>
         <v>6.8140778849102246E-2</v>
       </c>
@@ -4099,10 +4104,10 @@
         <v>10</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="F71" s="1">
         <v>31.36</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G71" s="27">
         <f t="shared" si="0"/>
         <v>7.6994579581597472E-2</v>
       </c>
@@ -4132,10 +4137,10 @@
         <v>9</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -4154,7 +4159,7 @@
       <c r="F72" s="1">
         <v>81.23</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G72" s="27">
         <f t="shared" si="0"/>
         <v>0.11190503821349823</v>
       </c>
@@ -4165,10 +4170,10 @@
         <v>10</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -4187,7 +4192,7 @@
       <c r="F73" s="1">
         <v>40.72</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G73" s="27">
         <f t="shared" ref="G73:G136" si="1">((D73/C73)/14)*1000</f>
         <v>9.2632885105062929E-2</v>
       </c>
@@ -4198,10 +4203,10 @@
         <v>9</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4225,7 @@
       <c r="F74" s="1">
         <v>20.22</v>
       </c>
-      <c r="G74" s="21">
+      <c r="G74" s="27">
         <f t="shared" si="1"/>
         <v>6.861881166664259E-2</v>
       </c>
@@ -4231,10 +4236,10 @@
         <v>7</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -4253,7 +4258,7 @@
       <c r="F75" s="1">
         <v>69.88</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G75" s="27">
         <f t="shared" si="1"/>
         <v>0.16197185968143496</v>
       </c>
@@ -4264,10 +4269,10 @@
         <v>10</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4291,7 @@
       <c r="F76" s="1">
         <v>61.37</v>
       </c>
-      <c r="G76" s="21">
+      <c r="G76" s="27">
         <f t="shared" si="1"/>
         <v>0.11158846175305474</v>
       </c>
@@ -4297,10 +4302,10 @@
         <v>10</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -4319,7 +4324,7 @@
       <c r="F77" s="1">
         <v>12.46</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="27">
         <f t="shared" si="1"/>
         <v>3.1158860333524441E-2</v>
       </c>
@@ -4330,10 +4335,10 @@
         <v>7</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="F78" s="1">
         <v>40.08</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="27">
         <f t="shared" si="1"/>
         <v>5.316755960901394E-2</v>
       </c>
@@ -4363,10 +4368,10 @@
         <v>9</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -4385,7 +4390,7 @@
       <c r="F79" s="1">
         <v>66.680000000000007</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="27">
         <f t="shared" si="1"/>
         <v>0.15979202453422162</v>
       </c>
@@ -4396,10 +4401,10 @@
         <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -4418,7 +4423,7 @@
       <c r="F80" s="1">
         <v>92.75</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="27">
         <f t="shared" si="1"/>
         <v>0.1727271006454788</v>
       </c>
@@ -4429,10 +4434,10 @@
         <v>10</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -4451,7 +4456,7 @@
       <c r="F81" s="1">
         <v>56.9</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="27">
         <f t="shared" si="1"/>
         <v>9.4840667678300461E-2</v>
       </c>
@@ -4462,10 +4467,10 @@
         <v>10</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -4484,7 +4489,7 @@
       <c r="F82" s="1">
         <v>23.2</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="27">
         <f t="shared" si="1"/>
         <v>5.5244650936673065E-2</v>
       </c>
@@ -4495,10 +4500,10 @@
         <v>8</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -4517,7 +4522,7 @@
       <c r="F83" s="1">
         <v>22.03</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G83" s="27">
         <f t="shared" si="1"/>
         <v>4.7199496538703589E-2</v>
       </c>
@@ -4528,10 +4533,10 @@
         <v>8</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -4550,7 +4555,7 @@
       <c r="F84" s="1">
         <v>11.24</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="27">
         <f t="shared" si="1"/>
         <v>4.5502724810226873E-2</v>
       </c>
@@ -4561,10 +4566,10 @@
         <v>6</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="F85" s="1">
         <v>23.81</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="27">
         <f t="shared" si="1"/>
         <v>5.1024457723402084E-2</v>
       </c>
@@ -4594,10 +4599,10 @@
         <v>8</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -4616,7 +4621,7 @@
       <c r="F86" s="1">
         <v>34.43</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="27">
         <f t="shared" si="1"/>
         <v>5.9247136574710639E-2</v>
       </c>
@@ -4627,10 +4632,10 @@
         <v>9</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -4649,7 +4654,7 @@
       <c r="F87" s="1">
         <v>27.69</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="27">
         <f t="shared" si="1"/>
         <v>4.5487087600219918E-2</v>
       </c>
@@ -4660,10 +4665,10 @@
         <v>9</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -4682,7 +4687,7 @@
       <c r="F88" s="1">
         <v>11.3</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="27">
         <f t="shared" si="1"/>
         <v>3.4961273666092946E-2</v>
       </c>
@@ -4693,10 +4698,10 @@
         <v>6</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -4715,7 +4720,7 @@
       <c r="F89" s="1">
         <v>132.38</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="27">
         <f t="shared" si="1"/>
         <v>0.22172659806184869</v>
       </c>
@@ -4726,10 +4731,10 @@
         <v>10</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -4748,7 +4753,7 @@
       <c r="F90" s="1">
         <v>11.38</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="27">
         <f t="shared" si="1"/>
         <v>0.10164006407389641</v>
       </c>
@@ -4759,10 +4764,10 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="F91" s="1">
         <v>34.15</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="27">
         <f t="shared" si="1"/>
         <v>9.7563355203785465E-2</v>
       </c>
@@ -4792,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -4814,7 +4819,7 @@
       <c r="F92" s="1">
         <v>35.909999999999997</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="27">
         <f t="shared" si="1"/>
         <v>0.10444648858234963</v>
       </c>
@@ -4825,10 +4830,10 @@
         <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -4847,7 +4852,7 @@
       <c r="F93" s="1">
         <v>56.63</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="27">
         <f t="shared" si="1"/>
         <v>9.1013894787937644E-2</v>
       </c>
@@ -4858,10 +4863,10 @@
         <v>10</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -4880,7 +4885,7 @@
       <c r="F94" s="1">
         <v>78</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="27">
         <f t="shared" si="1"/>
         <v>0.11143302874972143</v>
       </c>
@@ -4891,10 +4896,10 @@
         <v>10</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -4913,7 +4918,7 @@
       <c r="F95" s="1">
         <v>0</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="27">
         <f t="shared" si="1"/>
         <v>8.3607379744718796E-2</v>
       </c>
@@ -4924,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -4946,7 +4951,7 @@
       <c r="F96" s="1">
         <v>0</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="27">
         <f t="shared" si="1"/>
         <v>1.6461989266782998E-2</v>
       </c>
@@ -4957,10 +4962,10 @@
         <v>4</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4984,7 @@
       <c r="F97" s="1">
         <v>8.74</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="27">
         <f t="shared" si="1"/>
         <v>2.5754650275262581E-2</v>
       </c>
@@ -4990,10 +4995,10 @@
         <v>6</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -5012,7 +5017,7 @@
       <c r="F98" s="1">
         <v>1.66</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="27">
         <f t="shared" si="1"/>
         <v>1.1865211200759375E-2</v>
       </c>
@@ -5023,10 +5028,10 @@
         <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -5045,7 +5050,7 @@
       <c r="F99" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="27">
         <f t="shared" si="1"/>
         <v>2.1008403361344536E-2</v>
       </c>
@@ -5056,10 +5061,10 @@
         <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>18</v>
       </c>
@@ -5078,7 +5083,7 @@
       <c r="F100" s="1">
         <v>0</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="27">
         <f t="shared" si="1"/>
         <v>1.0053282396702522E-2</v>
       </c>
@@ -5089,10 +5094,10 @@
         <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -5111,7 +5116,7 @@
       <c r="F101" s="1">
         <v>6.83</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="27">
         <f t="shared" si="1"/>
         <v>9.7580015612802502E-3</v>
       </c>
@@ -5122,10 +5127,10 @@
         <v>7</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -5144,7 +5149,7 @@
       <c r="F102" s="1">
         <v>25.25</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="27">
         <f t="shared" si="1"/>
         <v>0.14430014430014429</v>
       </c>
@@ -5155,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -5177,7 +5182,7 @@
       <c r="F103" s="1">
         <v>0</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="27">
         <f t="shared" si="1"/>
         <v>4.4273907910271547E-2</v>
       </c>
@@ -5188,10 +5193,10 @@
         <v>4</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
@@ -5210,7 +5215,7 @@
       <c r="F104" s="1">
         <v>25.58</v>
       </c>
-      <c r="G104" s="21">
+      <c r="G104" s="27">
         <f t="shared" si="1"/>
         <v>2.2836681190795901E-2</v>
       </c>
@@ -5221,10 +5226,10 @@
         <v>9</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -5243,7 +5248,7 @@
       <c r="F105" s="1">
         <v>47.5</v>
       </c>
-      <c r="G105" s="21">
+      <c r="G105" s="27">
         <f t="shared" si="1"/>
         <v>9.9517340896651249E-2</v>
       </c>
@@ -5254,10 +5259,10 @@
         <v>9</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -5276,7 +5281,7 @@
       <c r="F106" s="1">
         <v>0</v>
       </c>
-      <c r="G106" s="21">
+      <c r="G106" s="27">
         <f t="shared" si="1"/>
         <v>9.1375938887772075E-3</v>
       </c>
@@ -5287,10 +5292,10 @@
         <v>4</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -5309,7 +5314,7 @@
       <c r="F107" s="1">
         <v>12.58</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G107" s="27">
         <f t="shared" si="1"/>
         <v>1.7969451931716084E-2</v>
       </c>
@@ -5320,10 +5325,10 @@
         <v>7</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -5342,7 +5347,7 @@
       <c r="F108" s="1">
         <v>0</v>
       </c>
-      <c r="G108" s="21">
+      <c r="G108" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5353,10 +5358,10 @@
         <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -5375,7 +5380,7 @@
       <c r="F109" s="1">
         <v>7.62</v>
       </c>
-      <c r="G109" s="21">
+      <c r="G109" s="27">
         <f t="shared" si="1"/>
         <v>5.4430062812292485E-2</v>
       </c>
@@ -5386,10 +5391,10 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>18</v>
       </c>
@@ -5408,7 +5413,7 @@
       <c r="F110" s="1">
         <v>17.239999999999998</v>
       </c>
-      <c r="G110" s="21">
+      <c r="G110" s="27">
         <f t="shared" si="1"/>
         <v>1.8472906403940888E-2</v>
       </c>
@@ -5419,10 +5424,10 @@
         <v>8</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>18</v>
       </c>
@@ -5441,7 +5446,7 @@
       <c r="F111" s="1">
         <v>9.09</v>
       </c>
-      <c r="G111" s="21">
+      <c r="G111" s="27">
         <f t="shared" si="1"/>
         <v>2.2714366837024418E-2</v>
       </c>
@@ -5452,10 +5457,10 @@
         <v>7</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -5474,7 +5479,7 @@
       <c r="F112" s="1">
         <v>188.11</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="27">
         <f t="shared" si="1"/>
         <v>0.24562824287039703</v>
       </c>
@@ -5485,10 +5490,10 @@
         <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5512,7 @@
       <c r="F113" s="1">
         <v>37.78</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="27">
         <f t="shared" si="1"/>
         <v>8.4323288743178237E-2</v>
       </c>
@@ -5518,10 +5523,10 @@
         <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -5540,7 +5545,7 @@
       <c r="F114" s="1">
         <v>6.23</v>
       </c>
-      <c r="G114" s="21">
+      <c r="G114" s="27">
         <f t="shared" si="1"/>
         <v>2.8916648871805822E-2</v>
       </c>
@@ -5551,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +5578,7 @@
       <c r="F115" s="1">
         <v>6.81</v>
       </c>
-      <c r="G115" s="21">
+      <c r="G115" s="27">
         <f t="shared" si="1"/>
         <v>3.4064586455920427E-2</v>
       </c>
@@ -5584,10 +5589,10 @@
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -5606,7 +5611,7 @@
       <c r="F116" s="1">
         <v>14.61</v>
       </c>
-      <c r="G116" s="21">
+      <c r="G116" s="27">
         <f t="shared" si="1"/>
         <v>3.5477162620009328E-2</v>
       </c>
@@ -5617,10 +5622,10 @@
         <v>7</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -5639,7 +5644,7 @@
       <c r="F117" s="1">
         <v>0</v>
       </c>
-      <c r="G117" s="21">
+      <c r="G117" s="27">
         <f t="shared" si="1"/>
         <v>3.6613763846105023E-3</v>
       </c>
@@ -5650,10 +5655,10 @@
         <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -5672,7 +5677,7 @@
       <c r="F118" s="1">
         <v>7.86</v>
       </c>
-      <c r="G118" s="21">
+      <c r="G118" s="27">
         <f t="shared" si="1"/>
         <v>8.4162332306552869E-3</v>
       </c>
@@ -5683,10 +5688,10 @@
         <v>7</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -5705,7 +5710,7 @@
       <c r="F119" s="1">
         <v>0</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G119" s="27">
         <f t="shared" si="1"/>
         <v>2.3089888937634209E-2</v>
       </c>
@@ -5716,10 +5721,10 @@
         <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -5738,7 +5743,7 @@
       <c r="F120" s="1">
         <v>258.04000000000002</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="27">
         <f t="shared" si="1"/>
         <v>0.60192922125089532</v>
       </c>
@@ -5749,10 +5754,10 @@
         <v>9.5</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -5771,7 +5776,7 @@
       <c r="F121" s="1">
         <v>220.61</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="27">
         <f t="shared" si="1"/>
         <v>0.35284364573127702</v>
       </c>
@@ -5782,10 +5787,10 @@
         <v>10</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -5804,7 +5809,7 @@
       <c r="F122" s="1">
         <v>104.66</v>
       </c>
-      <c r="G122" s="21">
+      <c r="G122" s="27">
         <f t="shared" si="1"/>
         <v>0.17007247704021561</v>
       </c>
@@ -5815,10 +5820,10 @@
         <v>10</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -5837,7 +5842,7 @@
       <c r="F123" s="1">
         <v>28.68</v>
       </c>
-      <c r="G123" s="21">
+      <c r="G123" s="27">
         <f t="shared" si="1"/>
         <v>7.1703091837320015E-2</v>
       </c>
@@ -5848,10 +5853,10 @@
         <v>9</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -5870,7 +5875,7 @@
       <c r="F124" s="1">
         <v>57.04</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G124" s="27">
         <f t="shared" si="1"/>
         <v>0.16296730875786319</v>
       </c>
@@ -5881,10 +5886,10 @@
         <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -5903,7 +5908,7 @@
       <c r="F125" s="1">
         <v>10.99</v>
       </c>
-      <c r="G125" s="21">
+      <c r="G125" s="27">
         <f t="shared" si="1"/>
         <v>3.6620646720621083E-2</v>
       </c>
@@ -5914,10 +5919,10 @@
         <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -5936,7 +5941,7 @@
       <c r="F126" s="1">
         <v>47.63</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G126" s="27">
         <f t="shared" si="1"/>
         <v>9.0722148300471747E-2</v>
       </c>
@@ -5947,10 +5952,10 @@
         <v>9</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -5969,7 +5974,7 @@
       <c r="F127" s="1">
         <v>0</v>
       </c>
-      <c r="G127" s="21">
+      <c r="G127" s="27">
         <f t="shared" si="1"/>
         <v>2.9740219185415397E-2</v>
       </c>
@@ -5980,10 +5985,10 @@
         <v>4</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -6002,7 +6007,7 @@
       <c r="F128" s="1">
         <v>67.44</v>
       </c>
-      <c r="G128" s="21">
+      <c r="G128" s="27">
         <f t="shared" si="1"/>
         <v>0.14099831507013491</v>
       </c>
@@ -6013,10 +6018,10 @@
         <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -6035,7 +6040,7 @@
       <c r="F129" s="1">
         <v>207.9</v>
       </c>
-      <c r="G129" s="21">
+      <c r="G129" s="27">
         <f t="shared" si="1"/>
         <v>0.39600039600039605</v>
       </c>
@@ -6046,10 +6051,10 @@
         <v>10</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6073,7 @@
       <c r="F130" s="1">
         <v>39.520000000000003</v>
       </c>
-      <c r="G130" s="21">
+      <c r="G130" s="27">
         <f t="shared" si="1"/>
         <v>7.4092368486045931E-2</v>
       </c>
@@ -6079,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -6101,7 +6106,7 @@
       <c r="F131" s="1">
         <v>33.57</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="27">
         <f t="shared" si="1"/>
         <v>5.6670313909946514E-2</v>
       </c>
@@ -6112,10 +6117,10 @@
         <v>9</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -6134,7 +6139,7 @@
       <c r="F132" s="1">
         <v>41.97</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="27">
         <f t="shared" si="1"/>
         <v>5.5673087629439934E-2</v>
       </c>
@@ -6145,10 +6150,10 @@
         <v>9</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="F133" s="1">
         <v>86.23</v>
       </c>
-      <c r="G133" s="21">
+      <c r="G133" s="27">
         <f t="shared" si="1"/>
         <v>0.16424354791331733</v>
       </c>
@@ -6178,10 +6183,10 @@
         <v>10</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -6200,7 +6205,7 @@
       <c r="F134" s="1">
         <v>0</v>
       </c>
-      <c r="G134" s="21">
+      <c r="G134" s="27">
         <f t="shared" si="1"/>
         <v>4.4267810415723925E-2</v>
       </c>
@@ -6211,10 +6216,10 @@
         <v>4</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -6233,7 +6238,7 @@
       <c r="F135" s="1">
         <v>162.19</v>
       </c>
-      <c r="G135" s="21">
+      <c r="G135" s="27">
         <f t="shared" si="1"/>
         <v>0.23170030955161355</v>
       </c>
@@ -6244,10 +6249,10 @@
         <v>10</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -6266,7 +6271,7 @@
       <c r="F136" s="1">
         <v>45.22</v>
       </c>
-      <c r="G136" s="21">
+      <c r="G136" s="27">
         <f t="shared" si="1"/>
         <v>5.9426917809988891E-2</v>
       </c>
@@ -6277,10 +6282,10 @@
         <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -6299,7 +6304,7 @@
       <c r="F137" s="1">
         <v>0</v>
       </c>
-      <c r="G137" s="21">
+      <c r="G137" s="27">
         <f t="shared" ref="G137:G200" si="2">((D137/C137)/14)*1000</f>
         <v>1.5260884826102218E-2</v>
       </c>
@@ -6310,10 +6315,10 @@
         <v>4</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -6332,7 +6337,7 @@
       <c r="F138" s="1">
         <v>45.2</v>
       </c>
-      <c r="G138" s="21">
+      <c r="G138" s="27">
         <f t="shared" si="2"/>
         <v>7.6103149747937138E-2</v>
       </c>
@@ -6343,10 +6348,10 @@
         <v>9</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -6365,7 +6370,7 @@
       <c r="F139" s="1">
         <v>148.84</v>
       </c>
-      <c r="G139" s="21">
+      <c r="G139" s="27">
         <f t="shared" si="2"/>
         <v>0.23935275128090175</v>
       </c>
@@ -6376,10 +6381,10 @@
         <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -6398,7 +6403,7 @@
       <c r="F140" s="1">
         <v>33.21</v>
       </c>
-      <c r="G140" s="21">
+      <c r="G140" s="27">
         <f t="shared" si="2"/>
         <v>6.9590743165872701E-2</v>
       </c>
@@ -6409,10 +6414,10 @@
         <v>9</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -6431,7 +6436,7 @@
       <c r="F141" s="1">
         <v>50.31</v>
       </c>
-      <c r="G141" s="21">
+      <c r="G141" s="27">
         <f t="shared" si="2"/>
         <v>6.8880011020801768E-2</v>
       </c>
@@ -6442,10 +6447,10 @@
         <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -6464,7 +6469,7 @@
       <c r="F142" s="1">
         <v>169.43</v>
       </c>
-      <c r="G142" s="21">
+      <c r="G142" s="27">
         <f t="shared" si="2"/>
         <v>0.32764045739788539</v>
       </c>
@@ -6475,10 +6480,10 @@
         <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -6497,7 +6502,7 @@
       <c r="F143" s="1">
         <v>39.409999999999997</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="27">
         <f t="shared" si="2"/>
         <v>0.11260230975487884</v>
       </c>
@@ -6508,10 +6513,10 @@
         <v>8</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>12</v>
       </c>
@@ -6530,7 +6535,7 @@
       <c r="F144" s="1">
         <v>170.17</v>
       </c>
-      <c r="G144" s="21">
+      <c r="G144" s="27">
         <f t="shared" si="2"/>
         <v>0.45794130134078365</v>
       </c>
@@ -6541,10 +6546,10 @@
         <v>9.5</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>12</v>
       </c>
@@ -6563,7 +6568,7 @@
       <c r="F145" s="1">
         <v>104.61</v>
       </c>
-      <c r="G145" s="21">
+      <c r="G145" s="27">
         <f t="shared" si="2"/>
         <v>0.24331273157816086</v>
       </c>
@@ -6574,10 +6579,10 @@
         <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>12</v>
       </c>
@@ -6596,7 +6601,7 @@
       <c r="F146" s="1">
         <v>111.16</v>
       </c>
-      <c r="G146" s="21">
+      <c r="G146" s="27">
         <f t="shared" si="2"/>
         <v>0.26761085264934742</v>
       </c>
@@ -6607,10 +6612,10 @@
         <v>10</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
@@ -6629,7 +6634,7 @@
       <c r="F147" s="1">
         <v>83.25</v>
       </c>
-      <c r="G147" s="21">
+      <c r="G147" s="27">
         <f t="shared" si="2"/>
         <v>0.15715390038991156</v>
       </c>
@@ -6640,10 +6645,10 @@
         <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
@@ -6662,7 +6667,7 @@
       <c r="F148" s="1">
         <v>50.55</v>
       </c>
-      <c r="G148" s="21">
+      <c r="G148" s="27">
         <f t="shared" si="2"/>
         <v>9.6281140931520043E-2</v>
       </c>
@@ -6673,10 +6678,10 @@
         <v>9</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
@@ -6695,7 +6700,7 @@
       <c r="F149" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="G149" s="21">
+      <c r="G149" s="27">
         <f t="shared" si="2"/>
         <v>6.0773873756359023E-2</v>
       </c>
@@ -6706,10 +6711,10 @@
         <v>7</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
@@ -6728,7 +6733,7 @@
       <c r="F150" s="1">
         <v>28.96</v>
       </c>
-      <c r="G150" s="21">
+      <c r="G150" s="27">
         <f t="shared" si="2"/>
         <v>0.13964024535308298</v>
       </c>
@@ -6739,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
@@ -6761,7 +6766,7 @@
       <c r="F151" s="1">
         <v>94.88</v>
       </c>
-      <c r="G151" s="21">
+      <c r="G151" s="27">
         <f t="shared" si="2"/>
         <v>0.17619951206288967</v>
       </c>
@@ -6772,10 +6777,10 @@
         <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
@@ -6794,7 +6799,7 @@
       <c r="F152" s="1">
         <v>68.03</v>
       </c>
-      <c r="G152" s="21">
+      <c r="G152" s="27">
         <f t="shared" si="2"/>
         <v>0.12310802405142028</v>
       </c>
@@ -6805,10 +6810,10 @@
         <v>10</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
@@ -6827,7 +6832,7 @@
       <c r="F153" s="1">
         <v>83.8</v>
       </c>
-      <c r="G153" s="21">
+      <c r="G153" s="27">
         <f t="shared" si="2"/>
         <v>0.18067468138075357</v>
       </c>
@@ -6838,10 +6843,10 @@
         <v>10</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
@@ -6860,7 +6865,7 @@
       <c r="F154" s="1">
         <v>8.16</v>
       </c>
-      <c r="G154" s="21">
+      <c r="G154" s="27">
         <f t="shared" si="2"/>
         <v>5.8256725738986569E-2</v>
       </c>
@@ -6871,10 +6876,10 @@
         <v>5</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +6898,7 @@
       <c r="F155" s="1">
         <v>62.93</v>
       </c>
-      <c r="G155" s="21">
+      <c r="G155" s="27">
         <f t="shared" si="2"/>
         <v>0.26072102849950557</v>
       </c>
@@ -6904,10 +6909,10 @@
         <v>9</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
@@ -6926,7 +6931,7 @@
       <c r="F156" s="1">
         <v>20.59</v>
       </c>
-      <c r="G156" s="21">
+      <c r="G156" s="27">
         <f t="shared" si="2"/>
         <v>8.9293593132167115E-2</v>
       </c>
@@ -6937,10 +6942,10 @@
         <v>7</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -6959,7 +6964,7 @@
       <c r="F157" s="1">
         <v>45.26</v>
       </c>
-      <c r="G157" s="21">
+      <c r="G157" s="27">
         <f t="shared" si="2"/>
         <v>9.6975718641114969E-2</v>
       </c>
@@ -6970,10 +6975,10 @@
         <v>9</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
@@ -6992,7 +6997,7 @@
       <c r="F158" s="1">
         <v>10.88</v>
       </c>
-      <c r="G158" s="21">
+      <c r="G158" s="27">
         <f t="shared" si="2"/>
         <v>3.3684166886909298E-2</v>
       </c>
@@ -7003,10 +7008,10 @@
         <v>6</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -7025,7 +7030,7 @@
       <c r="F159" s="1">
         <v>21.65</v>
       </c>
-      <c r="G159" s="21">
+      <c r="G159" s="27">
         <f t="shared" si="2"/>
         <v>6.9588346271611048E-2</v>
       </c>
@@ -7036,10 +7041,10 @@
         <v>7</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
@@ -7058,7 +7063,7 @@
       <c r="F160" s="1">
         <v>87.52</v>
       </c>
-      <c r="G160" s="21">
+      <c r="G160" s="27">
         <f t="shared" si="2"/>
         <v>0.21595080867894931</v>
       </c>
@@ -7069,10 +7074,10 @@
         <v>10</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -7091,7 +7096,7 @@
       <c r="F161" s="1">
         <v>103.16</v>
       </c>
-      <c r="G161" s="21">
+      <c r="G161" s="27">
         <f t="shared" si="2"/>
         <v>0.19650225977598743</v>
       </c>
@@ -7102,10 +7107,10 @@
         <v>10</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -7124,7 +7129,7 @@
       <c r="F162" s="1">
         <v>83.47</v>
       </c>
-      <c r="G162" s="21">
+      <c r="G162" s="27">
         <f t="shared" si="2"/>
         <v>0.16098259003100407</v>
       </c>
@@ -7135,10 +7140,10 @@
         <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
@@ -7157,7 +7162,7 @@
       <c r="F163" s="1">
         <v>32.49</v>
       </c>
-      <c r="G163" s="21">
+      <c r="G163" s="27">
         <f t="shared" si="2"/>
         <v>8.1232128931635034E-2</v>
       </c>
@@ -7168,10 +7173,10 @@
         <v>9</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
@@ -7190,7 +7195,7 @@
       <c r="F164" s="1">
         <v>0</v>
       </c>
-      <c r="G164" s="21">
+      <c r="G164" s="27">
         <f t="shared" si="2"/>
         <v>1.9443148234562141E-2</v>
       </c>
@@ -7201,10 +7206,10 @@
         <v>4</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>13</v>
       </c>
@@ -7223,7 +7228,7 @@
       <c r="F165" s="1">
         <v>70.11</v>
       </c>
-      <c r="G165" s="21">
+      <c r="G165" s="27">
         <f t="shared" si="2"/>
         <v>9.9494620042565249E-2</v>
       </c>
@@ -7234,10 +7239,10 @@
         <v>10</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>13</v>
       </c>
@@ -7256,7 +7261,7 @@
       <c r="F166" s="1">
         <v>49.27</v>
       </c>
-      <c r="G166" s="21">
+      <c r="G166" s="27">
         <f t="shared" si="2"/>
         <v>8.2117987123899616E-2</v>
       </c>
@@ -7267,10 +7272,10 @@
         <v>9</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7294,7 @@
       <c r="F167" s="1">
         <v>31.58</v>
       </c>
-      <c r="G167" s="21">
+      <c r="G167" s="27">
         <f t="shared" si="2"/>
         <v>5.8640443863052005E-2</v>
       </c>
@@ -7300,10 +7305,10 @@
         <v>9</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -7322,7 +7327,7 @@
       <c r="F168" s="1">
         <v>123.98</v>
       </c>
-      <c r="G168" s="21">
+      <c r="G168" s="27">
         <f t="shared" si="2"/>
         <v>0.1162340178225494</v>
       </c>
@@ -7333,10 +7338,10 @@
         <v>10</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -7355,7 +7360,7 @@
       <c r="F169" s="1">
         <v>91.63</v>
       </c>
-      <c r="G169" s="21">
+      <c r="G169" s="27">
         <f t="shared" si="2"/>
         <v>0.10908872731636277</v>
       </c>
@@ -7366,10 +7371,10 @@
         <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>13</v>
       </c>
@@ -7388,7 +7393,7 @@
       <c r="F170" s="1">
         <v>19.95</v>
       </c>
-      <c r="G170" s="21">
+      <c r="G170" s="27">
         <f t="shared" si="2"/>
         <v>2.4615799197265836E-2</v>
       </c>
@@ -7399,10 +7404,10 @@
         <v>8</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
@@ -7421,7 +7426,7 @@
       <c r="F171" s="1">
         <v>5.26</v>
       </c>
-      <c r="G171" s="21">
+      <c r="G171" s="27">
         <f t="shared" si="2"/>
         <v>1.691462250321378E-2</v>
       </c>
@@ -7432,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
@@ -7454,7 +7459,7 @@
       <c r="F172" s="1">
         <v>28.88</v>
       </c>
-      <c r="G172" s="21">
+      <c r="G172" s="27">
         <f t="shared" si="2"/>
         <v>3.4380328950987402E-2</v>
       </c>
@@ -7465,10 +7470,10 @@
         <v>9</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
@@ -7487,7 +7492,7 @@
       <c r="F173" s="1">
         <v>32.86</v>
       </c>
-      <c r="G173" s="21">
+      <c r="G173" s="27">
         <f t="shared" si="2"/>
         <v>4.8623942429252165E-2</v>
       </c>
@@ -7498,10 +7503,10 @@
         <v>9</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -7520,7 +7525,7 @@
       <c r="F174" s="1">
         <v>125.4</v>
       </c>
-      <c r="G174" s="21">
+      <c r="G174" s="27">
         <f t="shared" si="2"/>
         <v>0.77090699777978788</v>
       </c>
@@ -7531,10 +7536,10 @@
         <v>7</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -7553,7 +7558,7 @@
       <c r="F175" s="1">
         <v>100.77</v>
       </c>
-      <c r="G175" s="21">
+      <c r="G175" s="27">
         <f t="shared" si="2"/>
         <v>0.41239732407485813</v>
       </c>
@@ -7564,10 +7569,10 @@
         <v>8.5</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
@@ -7586,7 +7591,7 @@
       <c r="F176" s="1">
         <v>24.3</v>
       </c>
-      <c r="G176" s="21">
+      <c r="G176" s="27">
         <f t="shared" si="2"/>
         <v>9.3715507486827762E-2</v>
       </c>
@@ -7597,10 +7602,10 @@
         <v>7</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -7619,7 +7624,7 @@
       <c r="F177" s="1">
         <v>3.76</v>
       </c>
-      <c r="G177" s="21">
+      <c r="G177" s="27">
         <f t="shared" si="2"/>
         <v>2.2358599743502142E-2</v>
       </c>
@@ -7630,10 +7635,10 @@
         <v>5</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -7652,7 +7657,7 @@
       <c r="F178" s="1">
         <v>9.6199999999999992</v>
       </c>
-      <c r="G178" s="21">
+      <c r="G178" s="27">
         <f t="shared" si="2"/>
         <v>4.9474335188620905E-2</v>
       </c>
@@ -7663,10 +7668,10 @@
         <v>5</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -7685,7 +7690,7 @@
       <c r="F179" s="1">
         <v>14.48</v>
       </c>
-      <c r="G179" s="21">
+      <c r="G179" s="27">
         <f t="shared" si="2"/>
         <v>4.5679259203077922E-2</v>
       </c>
@@ -7696,10 +7701,10 @@
         <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
@@ -7718,7 +7723,7 @@
       <c r="F180" s="1">
         <v>3.7</v>
       </c>
-      <c r="G180" s="21">
+      <c r="G180" s="27">
         <f t="shared" si="2"/>
         <v>2.0280935039283292E-2</v>
       </c>
@@ -7729,10 +7734,10 @@
         <v>5</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -7751,7 +7756,7 @@
       <c r="F181" s="1">
         <v>5.96</v>
       </c>
-      <c r="G181" s="21">
+      <c r="G181" s="27">
         <f t="shared" si="2"/>
         <v>2.1276233596023895E-2</v>
       </c>
@@ -7762,10 +7767,10 @@
         <v>6</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -7784,7 +7789,7 @@
       <c r="F182" s="1">
         <v>6.42</v>
       </c>
-      <c r="G182" s="21">
+      <c r="G182" s="27">
         <f t="shared" si="2"/>
         <v>2.1773858992489164E-2</v>
       </c>
@@ -7795,10 +7800,10 @@
         <v>6</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -7817,7 +7822,7 @@
       <c r="F183" s="1">
         <v>6.89</v>
       </c>
-      <c r="G183" s="21">
+      <c r="G183" s="27">
         <f t="shared" si="2"/>
         <v>5.7455414598271734E-2</v>
       </c>
@@ -7828,10 +7833,10 @@
         <v>5</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -7850,7 +7855,7 @@
       <c r="F184" s="1">
         <v>16.55</v>
       </c>
-      <c r="G184" s="21">
+      <c r="G184" s="27">
         <f t="shared" si="2"/>
         <v>0.11426680116000504</v>
       </c>
@@ -7861,10 +7866,10 @@
         <v>6</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
@@ -7883,7 +7888,7 @@
       <c r="F185" s="1">
         <v>19.05</v>
       </c>
-      <c r="G185" s="21">
+      <c r="G185" s="27">
         <f t="shared" si="2"/>
         <v>2.9478458049886618E-2</v>
       </c>
@@ -7894,10 +7899,10 @@
         <v>8</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
@@ -7916,7 +7921,7 @@
       <c r="F186" s="1">
         <v>31.19</v>
       </c>
-      <c r="G186" s="21">
+      <c r="G186" s="27">
         <f t="shared" si="2"/>
         <v>6.1265466049185036E-2</v>
       </c>
@@ -7927,10 +7932,10 @@
         <v>9</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
@@ -7949,7 +7954,7 @@
       <c r="F187" s="1">
         <v>15.72</v>
       </c>
-      <c r="G187" s="21">
+      <c r="G187" s="27">
         <f t="shared" si="2"/>
         <v>4.8667265648397726E-2</v>
       </c>
@@ -7960,10 +7965,10 @@
         <v>7</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -7982,7 +7987,7 @@
       <c r="F188" s="1">
         <v>15.72</v>
       </c>
-      <c r="G188" s="21">
+      <c r="G188" s="27">
         <f t="shared" si="2"/>
         <v>6.3413383923121847E-2</v>
       </c>
@@ -7993,10 +7998,10 @@
         <v>7</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
@@ -8015,7 +8020,7 @@
       <c r="F189" s="1">
         <v>18.690000000000001</v>
       </c>
-      <c r="G189" s="21">
+      <c r="G189" s="27">
         <f t="shared" si="2"/>
         <v>7.5647004378626606E-2</v>
       </c>
@@ -8026,10 +8031,10 @@
         <v>7</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -8048,7 +8053,7 @@
       <c r="F190" s="1">
         <v>30.81</v>
       </c>
-      <c r="G190" s="21">
+      <c r="G190" s="27">
         <f t="shared" si="2"/>
         <v>6.4457706311824375E-2</v>
       </c>
@@ -8059,10 +8064,10 @@
         <v>9</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
@@ -8081,7 +8086,7 @@
       <c r="F191" s="1">
         <v>23.86</v>
       </c>
-      <c r="G191" s="21">
+      <c r="G191" s="27">
         <f t="shared" si="2"/>
         <v>6.2492188476440454E-2</v>
       </c>
@@ -8092,10 +8097,10 @@
         <v>8</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
@@ -8114,7 +8119,7 @@
       <c r="F192" s="1">
         <v>21.46</v>
       </c>
-      <c r="G192" s="21">
+      <c r="G192" s="27">
         <f t="shared" si="2"/>
         <v>4.5990339241466005E-2</v>
       </c>
@@ -8125,10 +8130,10 @@
         <v>8</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -8147,7 +8152,7 @@
       <c r="F193" s="1">
         <v>23.55</v>
       </c>
-      <c r="G193" s="21">
+      <c r="G193" s="27">
         <f t="shared" si="2"/>
         <v>3.6450301415954019E-2</v>
       </c>
@@ -8158,10 +8163,10 @@
         <v>8</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
@@ -8180,7 +8185,7 @@
       <c r="F194" s="1">
         <v>12.82</v>
       </c>
-      <c r="G194" s="21">
+      <c r="G194" s="27">
         <f t="shared" si="2"/>
         <v>5.4959147034038036E-2</v>
       </c>
@@ -8191,10 +8196,10 @@
         <v>6</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
@@ -8213,7 +8218,7 @@
       <c r="F195" s="1">
         <v>21.72</v>
       </c>
-      <c r="G195" s="21">
+      <c r="G195" s="27">
         <f t="shared" si="2"/>
         <v>3.4130328209647086E-2</v>
       </c>
@@ -8224,10 +8229,10 @@
         <v>8</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
@@ -8246,7 +8251,7 @@
       <c r="F196" s="1">
         <v>4.07</v>
       </c>
-      <c r="G196" s="21">
+      <c r="G196" s="27">
         <f t="shared" si="2"/>
         <v>8.7178891084505414E-3</v>
       </c>
@@ -8257,10 +8262,10 @@
         <v>7</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -8279,7 +8284,7 @@
       <c r="F197" s="1">
         <v>0</v>
       </c>
-      <c r="G197" s="21">
+      <c r="G197" s="27">
         <f t="shared" si="2"/>
         <v>3.8226056154076489E-2</v>
       </c>
@@ -8290,10 +8295,10 @@
         <v>4</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>2</v>
       </c>
@@ -8312,7 +8317,7 @@
       <c r="F198" s="1">
         <v>5.61</v>
       </c>
-      <c r="G198" s="21">
+      <c r="G198" s="27">
         <f t="shared" si="2"/>
         <v>3.2082902219334762E-2</v>
       </c>
@@ -8323,10 +8328,10 @@
         <v>5</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>2</v>
       </c>
@@ -8345,7 +8350,7 @@
       <c r="F199" s="1">
         <v>3.74</v>
       </c>
-      <c r="G199" s="21">
+      <c r="G199" s="27">
         <f t="shared" si="2"/>
         <v>1.0695301554027316E-2</v>
       </c>
@@ -8356,10 +8361,10 @@
         <v>6</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
@@ -8378,7 +8383,7 @@
       <c r="F200" s="1">
         <v>7.25</v>
       </c>
-      <c r="G200" s="21">
+      <c r="G200" s="27">
         <f t="shared" si="2"/>
         <v>4.1452925022021865E-2</v>
       </c>
@@ -8389,10 +8394,10 @@
         <v>5</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>2</v>
       </c>
@@ -8411,7 +8416,7 @@
       <c r="F201" s="1">
         <v>33.270000000000003</v>
       </c>
-      <c r="G201" s="21">
+      <c r="G201" s="27">
         <f t="shared" ref="G201:G264" si="3">((D201/C201)/14)*1000</f>
         <v>9.5047999239616002E-2</v>
       </c>
@@ -8422,10 +8427,10 @@
         <v>8</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
@@ -8444,7 +8449,7 @@
       <c r="F202" s="1">
         <v>0</v>
       </c>
-      <c r="G202" s="21">
+      <c r="G202" s="27">
         <f t="shared" si="3"/>
         <v>0.11902174475528095</v>
       </c>
@@ -8455,10 +8460,10 @@
         <v>4</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
@@ -8477,7 +8482,7 @@
       <c r="F203" s="1">
         <v>2.96</v>
       </c>
-      <c r="G203" s="21">
+      <c r="G203" s="27">
         <f t="shared" si="3"/>
         <v>3.1732868482068813E-2</v>
       </c>
@@ -8488,10 +8493,10 @@
         <v>5</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -8510,7 +8515,7 @@
       <c r="F204" s="1">
         <v>109.11</v>
       </c>
-      <c r="G204" s="21">
+      <c r="G204" s="27">
         <f t="shared" si="3"/>
         <v>0.22992978298165867</v>
       </c>
@@ -8521,10 +8526,10 @@
         <v>10</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -8543,7 +8548,7 @@
       <c r="F205" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="G205" s="21">
+      <c r="G205" s="27">
         <f t="shared" si="3"/>
         <v>6.4473230404021892E-2</v>
       </c>
@@ -8554,10 +8559,10 @@
         <v>9</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -8576,7 +8581,7 @@
       <c r="F206" s="1">
         <v>50.33</v>
       </c>
-      <c r="G206" s="21">
+      <c r="G206" s="27">
         <f t="shared" si="3"/>
         <v>0.140536653920319</v>
       </c>
@@ -8587,10 +8592,10 @@
         <v>9</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -8609,7 +8614,7 @@
       <c r="F207" s="1">
         <v>9.2100000000000009</v>
       </c>
-      <c r="G207" s="21">
+      <c r="G207" s="27">
         <f t="shared" si="3"/>
         <v>4.1644200716280257E-2</v>
       </c>
@@ -8620,10 +8625,10 @@
         <v>6</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -8642,7 +8647,7 @@
       <c r="F208" s="1">
         <v>6.09</v>
       </c>
-      <c r="G208" s="21">
+      <c r="G208" s="27">
         <f t="shared" si="3"/>
         <v>1.1591078346996318E-2</v>
       </c>
@@ -8653,10 +8658,10 @@
         <v>7</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -8675,7 +8680,7 @@
       <c r="F209" s="1">
         <v>14.82</v>
       </c>
-      <c r="G209" s="21">
+      <c r="G209" s="27">
         <f t="shared" si="3"/>
         <v>4.9391252809127505E-2</v>
       </c>
@@ -8686,10 +8691,10 @@
         <v>6</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -8708,7 +8713,7 @@
       <c r="F210" s="1">
         <v>7.08</v>
       </c>
-      <c r="G210" s="21">
+      <c r="G210" s="27">
         <f t="shared" si="3"/>
         <v>5.3940160134850403E-2</v>
       </c>
@@ -8719,10 +8724,10 @@
         <v>5</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -8741,7 +8746,7 @@
       <c r="F211" s="1">
         <v>26</v>
       </c>
-      <c r="G211" s="21">
+      <c r="G211" s="27">
         <f t="shared" si="3"/>
         <v>4.4101023840085039E-2</v>
       </c>
@@ -8752,10 +8757,10 @@
         <v>9</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -8774,7 +8779,7 @@
       <c r="F212" s="1">
         <v>1.84</v>
       </c>
-      <c r="G212" s="21">
+      <c r="G212" s="27">
         <f t="shared" si="3"/>
         <v>7.8807588645402622E-3</v>
       </c>
@@ -8785,10 +8790,10 @@
         <v>6</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -8807,7 +8812,7 @@
       <c r="F213" s="1">
         <v>0</v>
       </c>
-      <c r="G213" s="21">
+      <c r="G213" s="27">
         <f t="shared" si="3"/>
         <v>1.6740940639972679E-3</v>
       </c>
@@ -8818,10 +8823,10 @@
         <v>4</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
@@ -8840,7 +8845,7 @@
       <c r="F214" s="1">
         <v>8.58</v>
       </c>
-      <c r="G214" s="21">
+      <c r="G214" s="27">
         <f t="shared" si="3"/>
         <v>2.7573275980919291E-2</v>
       </c>
@@ -8851,10 +8856,10 @@
         <v>6</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8878,7 @@
       <c r="F215" s="1">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G215" s="21">
+      <c r="G215" s="27">
         <f t="shared" si="3"/>
         <v>3.3451528734863185E-2</v>
       </c>
@@ -8884,10 +8889,10 @@
         <v>5</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
@@ -8906,7 +8911,7 @@
       <c r="F216" s="1">
         <v>17.11</v>
       </c>
-      <c r="G216" s="21">
+      <c r="G216" s="27">
         <f t="shared" si="3"/>
         <v>1.8330162894047583E-2</v>
       </c>
@@ -8917,10 +8922,10 @@
         <v>8</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>10</v>
       </c>
@@ -8939,7 +8944,7 @@
       <c r="F217" s="1">
         <v>5.49</v>
       </c>
-      <c r="G217" s="21">
+      <c r="G217" s="27">
         <f t="shared" si="3"/>
         <v>1.9599542154695265E-2</v>
       </c>
@@ -8950,10 +8955,10 @@
         <v>6</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>10</v>
       </c>
@@ -8972,7 +8977,7 @@
       <c r="F218" s="1">
         <v>10.44</v>
       </c>
-      <c r="G218" s="21">
+      <c r="G218" s="27">
         <f t="shared" si="3"/>
         <v>4.4755912442516622E-2</v>
       </c>
@@ -8983,10 +8988,10 @@
         <v>6</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>10</v>
       </c>
@@ -9005,7 +9010,7 @@
       <c r="F219" s="1">
         <v>27.82</v>
       </c>
-      <c r="G219" s="21">
+      <c r="G219" s="27">
         <f t="shared" si="3"/>
         <v>9.9344327438903243E-2</v>
       </c>
@@ -9016,10 +9021,10 @@
         <v>8</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -9038,7 +9043,7 @@
       <c r="F220" s="1">
         <v>35.880000000000003</v>
       </c>
-      <c r="G220" s="21">
+      <c r="G220" s="27">
         <f t="shared" si="3"/>
         <v>8.2574737255728267E-2</v>
       </c>
@@ -9049,10 +9054,10 @@
         <v>9</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
@@ -9071,7 +9076,7 @@
       <c r="F221" s="1">
         <v>0</v>
       </c>
-      <c r="G221" s="21">
+      <c r="G221" s="27">
         <f t="shared" si="3"/>
         <v>4.9882899892502355E-3</v>
       </c>
@@ -9082,10 +9087,10 @@
         <v>4</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>10</v>
       </c>
@@ -9104,7 +9109,7 @@
       <c r="F222" s="1">
         <v>27.51</v>
       </c>
-      <c r="G222" s="21">
+      <c r="G222" s="27">
         <f t="shared" si="3"/>
         <v>3.4386318829948186E-2</v>
       </c>
@@ -9115,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>10</v>
       </c>
@@ -9137,7 +9142,7 @@
       <c r="F223" s="1">
         <v>21.93</v>
       </c>
-      <c r="G223" s="21">
+      <c r="G223" s="27">
         <f t="shared" si="3"/>
         <v>2.6110115058573694E-2</v>
       </c>
@@ -9148,10 +9153,10 @@
         <v>8</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -9170,7 +9175,7 @@
       <c r="F224" s="1">
         <v>8.59</v>
       </c>
-      <c r="G224" s="21">
+      <c r="G224" s="27">
         <f t="shared" si="3"/>
         <v>1.8417336853091042E-2</v>
       </c>
@@ -9181,10 +9186,10 @@
         <v>7</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -9203,7 +9208,7 @@
       <c r="F225" s="1">
         <v>19.62</v>
       </c>
-      <c r="G225" s="21">
+      <c r="G225" s="27">
         <f t="shared" si="3"/>
         <v>2.8033191298497424E-2</v>
       </c>
@@ -9214,10 +9219,10 @@
         <v>8</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -9236,7 +9241,7 @@
       <c r="F226" s="1">
         <v>0</v>
       </c>
-      <c r="G226" s="21">
+      <c r="G226" s="27">
         <f t="shared" si="3"/>
         <v>1.182396481188072E-2</v>
       </c>
@@ -9247,10 +9252,10 @@
         <v>4</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>10</v>
       </c>
@@ -9269,7 +9274,7 @@
       <c r="F227" s="1">
         <v>76.540000000000006</v>
       </c>
-      <c r="G227" s="21">
+      <c r="G227" s="27">
         <f t="shared" si="3"/>
         <v>0.10543827174957239</v>
       </c>
@@ -9280,10 +9285,10 @@
         <v>10</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -9302,7 +9307,7 @@
       <c r="F228" s="1">
         <v>3.95</v>
       </c>
-      <c r="G228" s="21">
+      <c r="G228" s="27">
         <f t="shared" si="3"/>
         <v>1.1278789109201237E-2</v>
       </c>
@@ -9313,10 +9318,10 @@
         <v>6</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>10</v>
       </c>
@@ -9335,7 +9340,7 @@
       <c r="F229" s="1">
         <v>1.63</v>
       </c>
-      <c r="G229" s="21">
+      <c r="G229" s="27">
         <f t="shared" si="3"/>
         <v>9.3320361803042717E-3</v>
       </c>
@@ -9346,10 +9351,10 @@
         <v>5</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -9368,7 +9373,7 @@
       <c r="F230" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="G230" s="21">
+      <c r="G230" s="27">
         <f t="shared" si="3"/>
         <v>2.9568375636644086E-2</v>
       </c>
@@ -9379,10 +9384,10 @@
         <v>6</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -9401,7 +9406,7 @@
       <c r="F231" s="1">
         <v>24.33</v>
       </c>
-      <c r="G231" s="21">
+      <c r="G231" s="27">
         <f t="shared" si="3"/>
         <v>6.9516857838025733E-2</v>
       </c>
@@ -9412,10 +9417,10 @@
         <v>7</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
@@ -9434,7 +9439,7 @@
       <c r="F232" s="1">
         <v>0</v>
       </c>
-      <c r="G232" s="21">
+      <c r="G232" s="27">
         <f t="shared" si="3"/>
         <v>1.3814635224556896E-2</v>
       </c>
@@ -9445,10 +9450,10 @@
         <v>4</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>10</v>
       </c>
@@ -9467,7 +9472,7 @@
       <c r="F233" s="1">
         <v>14.32</v>
       </c>
-      <c r="G233" s="21">
+      <c r="G233" s="27">
         <f t="shared" si="3"/>
         <v>6.6464206468501069E-2</v>
       </c>
@@ -9478,10 +9483,10 @@
         <v>6</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>10</v>
       </c>
@@ -9500,7 +9505,7 @@
       <c r="F234" s="1">
         <v>136.91999999999999</v>
       </c>
-      <c r="G234" s="21">
+      <c r="G234" s="27">
         <f t="shared" si="3"/>
         <v>0.11875654907439749</v>
       </c>
@@ -9511,10 +9516,10 @@
         <v>10</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
@@ -9533,7 +9538,7 @@
       <c r="F235" s="1">
         <v>11.5</v>
       </c>
-      <c r="G235" s="21">
+      <c r="G235" s="27">
         <f t="shared" si="3"/>
         <v>3.6960682047786055E-2</v>
       </c>
@@ -9544,10 +9549,10 @@
         <v>6</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>10</v>
       </c>
@@ -9566,7 +9571,7 @@
       <c r="F236" s="1">
         <v>14.58</v>
       </c>
-      <c r="G236" s="21">
+      <c r="G236" s="27">
         <f t="shared" si="3"/>
         <v>7.2875674099985424E-2</v>
       </c>
@@ -9577,10 +9582,10 @@
         <v>5</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>15</v>
       </c>
@@ -9599,7 +9604,7 @@
       <c r="F237" s="1">
         <v>34.700000000000003</v>
       </c>
-      <c r="G237" s="21">
+      <c r="G237" s="27">
         <f t="shared" si="3"/>
         <v>6.4156962926024103E-2</v>
       </c>
@@ -9610,10 +9615,10 @@
         <v>9</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>15</v>
       </c>
@@ -9632,7 +9637,7 @@
       <c r="F238" s="1">
         <v>12.49</v>
       </c>
-      <c r="G238" s="21">
+      <c r="G238" s="27">
         <f t="shared" si="3"/>
         <v>1.3376971988620655E-2</v>
       </c>
@@ -9643,10 +9648,10 @@
         <v>7</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -9665,7 +9670,7 @@
       <c r="F239" s="1">
         <v>22.57</v>
       </c>
-      <c r="G239" s="21">
+      <c r="G239" s="27">
         <f t="shared" si="3"/>
         <v>3.7610952309312468E-2</v>
       </c>
@@ -9676,10 +9681,10 @@
         <v>8</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>15</v>
       </c>
@@ -9698,7 +9703,7 @@
       <c r="F240" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G240" s="21">
+      <c r="G240" s="27">
         <f t="shared" si="3"/>
         <v>1.0913734206917125E-2</v>
       </c>
@@ -9709,10 +9714,10 @@
         <v>6</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>15</v>
       </c>
@@ -9731,7 +9736,7 @@
       <c r="F241" s="1">
         <v>0</v>
       </c>
-      <c r="G241" s="21">
+      <c r="G241" s="27">
         <f t="shared" si="3"/>
         <v>2.8113736934140762E-2</v>
       </c>
@@ -9742,10 +9747,10 @@
         <v>4</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>15</v>
       </c>
@@ -9764,7 +9769,7 @@
       <c r="F242" s="1">
         <v>9.4</v>
       </c>
-      <c r="G242" s="21">
+      <c r="G242" s="27">
         <f t="shared" si="3"/>
         <v>1.5346235041017609E-2</v>
       </c>
@@ -9775,10 +9780,10 @@
         <v>7</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>15</v>
       </c>
@@ -9797,7 +9802,7 @@
       <c r="F243" s="1">
         <v>13.4</v>
       </c>
-      <c r="G243" s="21">
+      <c r="G243" s="27">
         <f t="shared" si="3"/>
         <v>9.5723092238771679E-3</v>
       </c>
@@ -9808,10 +9813,10 @@
         <v>7</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>15</v>
       </c>
@@ -9830,7 +9835,7 @@
       <c r="F244" s="1">
         <v>3.32</v>
       </c>
-      <c r="G244" s="21">
+      <c r="G244" s="27">
         <f t="shared" si="3"/>
         <v>9.4814590069119842E-3</v>
       </c>
@@ -9841,10 +9846,10 @@
         <v>6</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>15</v>
       </c>
@@ -9863,7 +9868,7 @@
       <c r="F245" s="1">
         <v>2.67</v>
       </c>
-      <c r="G245" s="21">
+      <c r="G245" s="27">
         <f t="shared" si="3"/>
         <v>1.3362195675993479E-2</v>
       </c>
@@ -9874,10 +9879,10 @@
         <v>5</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>15</v>
       </c>
@@ -9896,7 +9901,7 @@
       <c r="F246" s="1">
         <v>6.47</v>
       </c>
-      <c r="G246" s="21">
+      <c r="G246" s="27">
         <f t="shared" si="3"/>
         <v>1.2328556017876406E-2</v>
       </c>
@@ -9907,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>15</v>
       </c>
@@ -9929,7 +9934,7 @@
       <c r="F247" s="1">
         <v>2.81</v>
       </c>
-      <c r="G247" s="21">
+      <c r="G247" s="27">
         <f t="shared" si="3"/>
         <v>1.8049672699268385E-2</v>
       </c>
@@ -9940,10 +9945,10 @@
         <v>5</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>15</v>
       </c>
@@ -9962,7 +9967,7 @@
       <c r="F248" s="1">
         <v>1.91</v>
       </c>
-      <c r="G248" s="21">
+      <c r="G248" s="27">
         <f t="shared" si="3"/>
         <v>6.8117385327787668E-3</v>
       </c>
@@ -9973,10 +9978,10 @@
         <v>6</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>15</v>
       </c>
@@ -9995,7 +10000,7 @@
       <c r="F249" s="1">
         <v>15.79</v>
       </c>
-      <c r="G249" s="21">
+      <c r="G249" s="27">
         <f t="shared" si="3"/>
         <v>4.9825797729823845E-2</v>
       </c>
@@ -10006,10 +10011,10 @@
         <v>7</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>15</v>
       </c>
@@ -10028,7 +10033,7 @@
       <c r="F250" s="1">
         <v>3.63</v>
       </c>
-      <c r="G250" s="21">
+      <c r="G250" s="27">
         <f t="shared" si="3"/>
         <v>1.5571958018001182E-2</v>
       </c>
@@ -10039,10 +10044,10 @@
         <v>6</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>15</v>
       </c>
@@ -10061,7 +10066,7 @@
       <c r="F251" s="1">
         <v>23.3</v>
       </c>
-      <c r="G251" s="21">
+      <c r="G251" s="27">
         <f t="shared" si="3"/>
         <v>4.9932933217149512E-2</v>
       </c>
@@ -10072,10 +10077,10 @@
         <v>8</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>15</v>
       </c>
@@ -10094,7 +10099,7 @@
       <c r="F252" s="1">
         <v>14.59</v>
       </c>
-      <c r="G252" s="21">
+      <c r="G252" s="27">
         <f t="shared" si="3"/>
         <v>2.8652175611789069E-2</v>
       </c>
@@ -10105,10 +10110,10 @@
         <v>7</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>15</v>
       </c>
@@ -10127,7 +10132,7 @@
       <c r="F253" s="1">
         <v>0</v>
       </c>
-      <c r="G253" s="21">
+      <c r="G253" s="27">
         <f t="shared" si="3"/>
         <v>4.5828674084801378E-3</v>
       </c>
@@ -10138,10 +10143,10 @@
         <v>4</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>15</v>
       </c>
@@ -10160,7 +10165,7 @@
       <c r="F254" s="1">
         <v>23.85</v>
       </c>
-      <c r="G254" s="21">
+      <c r="G254" s="27">
         <f t="shared" si="3"/>
         <v>2.2717204875112165E-2</v>
       </c>
@@ -10171,10 +10176,10 @@
         <v>8</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>15</v>
       </c>
@@ -10193,7 +10198,7 @@
       <c r="F255" s="1">
         <v>4.72</v>
       </c>
-      <c r="G255" s="21">
+      <c r="G255" s="27">
         <f t="shared" si="3"/>
         <v>1.6869437303049319E-2</v>
       </c>
@@ -10204,10 +10209,10 @@
         <v>6</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>15</v>
       </c>
@@ -10226,7 +10231,7 @@
       <c r="F256" s="1">
         <v>64.33</v>
       </c>
-      <c r="G256" s="21">
+      <c r="G256" s="27">
         <f t="shared" si="3"/>
         <v>8.9231609298732764E-2</v>
       </c>
@@ -10237,10 +10242,10 @@
         <v>10</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>15</v>
       </c>
@@ -10259,7 +10264,7 @@
       <c r="F257" s="1">
         <v>10.36</v>
       </c>
-      <c r="G257" s="21">
+      <c r="G257" s="27">
         <f t="shared" si="3"/>
         <v>2.9601562962524419E-2</v>
       </c>
@@ -10270,10 +10275,10 @@
         <v>6</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>17</v>
       </c>
@@ -10292,7 +10297,7 @@
       <c r="F258" s="1">
         <v>78.5</v>
       </c>
-      <c r="G258" s="21">
+      <c r="G258" s="27">
         <f t="shared" si="3"/>
         <v>0.16718930314682892</v>
       </c>
@@ -10303,10 +10308,10 @@
         <v>10</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>17</v>
       </c>
@@ -10325,7 +10330,7 @@
       <c r="F259" s="1">
         <v>58.5</v>
       </c>
-      <c r="G259" s="21">
+      <c r="G259" s="27">
         <f t="shared" si="3"/>
         <v>0.1134260641155752</v>
       </c>
@@ -10336,10 +10341,10 @@
         <v>10</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>17</v>
       </c>
@@ -10358,7 +10363,7 @@
       <c r="F260" s="1">
         <v>80.55</v>
       </c>
-      <c r="G260" s="21">
+      <c r="G260" s="27">
         <f t="shared" si="3"/>
         <v>0.13527844034842754</v>
       </c>
@@ -10369,10 +10374,10 @@
         <v>10</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>17</v>
       </c>
@@ -10391,7 +10396,7 @@
       <c r="F261" s="1">
         <v>6.72</v>
       </c>
-      <c r="G261" s="21">
+      <c r="G261" s="27">
         <f t="shared" si="3"/>
         <v>4.4420753375977257E-2</v>
       </c>
@@ -10402,10 +10407,10 @@
         <v>5</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>17</v>
       </c>
@@ -10424,7 +10429,7 @@
       <c r="F262" s="1">
         <v>13.91</v>
       </c>
-      <c r="G262" s="21">
+      <c r="G262" s="27">
         <f t="shared" si="3"/>
         <v>0.12418040929862906</v>
       </c>
@@ -10435,10 +10440,10 @@
         <v>5</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>17</v>
       </c>
@@ -10457,7 +10462,7 @@
       <c r="F263" s="1">
         <v>29.33</v>
       </c>
-      <c r="G263" s="21">
+      <c r="G263" s="27">
         <f t="shared" si="3"/>
         <v>0.1885395863301817</v>
       </c>
@@ -10468,10 +10473,10 @@
         <v>7</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>17</v>
       </c>
@@ -10490,7 +10495,7 @@
       <c r="F264" s="1">
         <v>61.61</v>
       </c>
-      <c r="G264" s="21">
+      <c r="G264" s="27">
         <f t="shared" si="3"/>
         <v>9.8375764353800674E-2</v>
       </c>
@@ -10501,10 +10506,10 @@
         <v>10</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>17</v>
       </c>
@@ -10523,7 +10528,7 @@
       <c r="F265" s="1">
         <v>14</v>
       </c>
-      <c r="G265" s="21">
+      <c r="G265" s="27">
         <f t="shared" ref="G265:G328" si="4">((D265/C265)/14)*1000</f>
         <v>4.4440099190301396E-2</v>
       </c>
@@ -10534,10 +10539,10 @@
         <v>6</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>4</v>
       </c>
@@ -10556,7 +10561,7 @@
       <c r="F266" s="1">
         <v>68.27</v>
       </c>
-      <c r="G266" s="21">
+      <c r="G266" s="27">
         <f t="shared" si="4"/>
         <v>0.14565616348677268</v>
       </c>
@@ -10567,10 +10572,10 @@
         <v>10</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>4</v>
       </c>
@@ -10589,7 +10594,7 @@
       <c r="F267" s="1">
         <v>20.010000000000002</v>
       </c>
-      <c r="G267" s="21">
+      <c r="G267" s="27">
         <f t="shared" si="4"/>
         <v>6.1257743999803972E-2</v>
       </c>
@@ -10600,10 +10605,10 @@
         <v>7</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>4</v>
       </c>
@@ -10622,7 +10627,7 @@
       <c r="F268" s="1">
         <v>17.649999999999999</v>
       </c>
-      <c r="G268" s="21">
+      <c r="G268" s="27">
         <f t="shared" si="4"/>
         <v>4.7734330530517538E-2</v>
       </c>
@@ -10633,10 +10638,10 @@
         <v>8</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>4</v>
       </c>
@@ -10655,7 +10660,7 @@
       <c r="F269" s="1">
         <v>19.41</v>
       </c>
-      <c r="G269" s="21">
+      <c r="G269" s="27">
         <f t="shared" si="4"/>
         <v>4.8515427906074132E-2</v>
       </c>
@@ -10666,10 +10671,10 @@
         <v>8</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>4</v>
       </c>
@@ -10688,7 +10693,7 @@
       <c r="F270" s="1">
         <v>8.3800000000000008</v>
       </c>
-      <c r="G270" s="21">
+      <c r="G270" s="27">
         <f t="shared" si="4"/>
         <v>1.7963426463719869E-2</v>
       </c>
@@ -10699,10 +10704,10 @@
         <v>7</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>4</v>
       </c>
@@ -10721,7 +10726,7 @@
       <c r="F271" s="1">
         <v>5.99</v>
       </c>
-      <c r="G271" s="21">
+      <c r="G271" s="27">
         <f t="shared" si="4"/>
         <v>1.9962869063541808E-2</v>
       </c>
@@ -10732,10 +10737,10 @@
         <v>6</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>4</v>
       </c>
@@ -10754,7 +10759,7 @@
       <c r="F272" s="1">
         <v>3.76</v>
       </c>
-      <c r="G272" s="21">
+      <c r="G272" s="27">
         <f t="shared" si="4"/>
         <v>1.5220999965976589E-2</v>
       </c>
@@ -10765,10 +10770,10 @@
         <v>6</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>4</v>
       </c>
@@ -10787,7 +10792,7 @@
       <c r="F273" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="G273" s="21">
+      <c r="G273" s="27">
         <f t="shared" si="4"/>
         <v>1.3948598679728428E-2</v>
       </c>
@@ -10798,10 +10803,10 @@
         <v>7</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>4</v>
       </c>
@@ -10820,7 +10825,7 @@
       <c r="F274" s="1">
         <v>17.28</v>
       </c>
-      <c r="G274" s="21">
+      <c r="G274" s="27">
         <f t="shared" si="4"/>
         <v>4.6494007439041189E-2</v>
       </c>
@@ -10831,10 +10836,10 @@
         <v>8</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>4</v>
       </c>
@@ -10853,7 +10858,7 @@
       <c r="F275" s="1">
         <v>28.17</v>
       </c>
-      <c r="G275" s="21">
+      <c r="G275" s="27">
         <f t="shared" si="4"/>
         <v>4.7338958779601641E-2</v>
       </c>
@@ -10864,10 +10869,10 @@
         <v>9</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>4</v>
       </c>
@@ -10886,7 +10891,7 @@
       <c r="F276" s="1">
         <v>61.19</v>
       </c>
-      <c r="G276" s="21">
+      <c r="G276" s="27">
         <f t="shared" si="4"/>
         <v>8.7421184338494828E-2</v>
       </c>
@@ -10897,10 +10902,10 @@
         <v>10</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>4</v>
       </c>
@@ -10919,7 +10924,7 @@
       <c r="F277" s="1">
         <v>10.130000000000001</v>
       </c>
-      <c r="G277" s="21">
+      <c r="G277" s="27">
         <f t="shared" si="4"/>
         <v>2.0671877357886011E-2</v>
       </c>
@@ -10930,10 +10935,10 @@
         <v>7</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>4</v>
       </c>
@@ -10952,7 +10957,7 @@
       <c r="F278" s="1">
         <v>24.9</v>
       </c>
-      <c r="G278" s="21">
+      <c r="G278" s="27">
         <f t="shared" si="4"/>
         <v>3.4199913542618567E-2</v>
       </c>
@@ -10963,10 +10968,10 @@
         <v>8</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>4</v>
       </c>
@@ -10985,7 +10990,7 @@
       <c r="F279" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="G279" s="21">
+      <c r="G279" s="27">
         <f t="shared" si="4"/>
         <v>4.2031350442565403E-2</v>
       </c>
@@ -10996,10 +11001,10 @@
         <v>8</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>4</v>
       </c>
@@ -11018,7 +11023,7 @@
       <c r="F280" s="1">
         <v>88.1</v>
       </c>
-      <c r="G280" s="21">
+      <c r="G280" s="27">
         <f t="shared" si="4"/>
         <v>0.12022640134202719</v>
       </c>
@@ -11029,10 +11034,10 @@
         <v>10</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>4</v>
       </c>
@@ -11051,7 +11056,7 @@
       <c r="F281" s="1">
         <v>11.16</v>
       </c>
-      <c r="G281" s="21">
+      <c r="G281" s="27">
         <f t="shared" si="4"/>
         <v>3.0280525159928982E-2</v>
       </c>
@@ -11062,10 +11067,10 @@
         <v>7</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11089,7 @@
       <c r="F282" s="1">
         <v>50.83</v>
       </c>
-      <c r="G282" s="21">
+      <c r="G282" s="27">
         <f t="shared" si="4"/>
         <v>7.4423670357596658E-2</v>
       </c>
@@ -11095,10 +11100,10 @@
         <v>9</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -11117,7 +11122,7 @@
       <c r="F283" s="1">
         <v>178.79</v>
       </c>
-      <c r="G283" s="21">
+      <c r="G283" s="27">
         <f t="shared" si="4"/>
         <v>0.3532701538134933</v>
       </c>
@@ -11128,10 +11133,10 @@
         <v>10</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -11150,7 +11155,7 @@
       <c r="F284" s="1">
         <v>84.47</v>
       </c>
-      <c r="G284" s="21">
+      <c r="G284" s="27">
         <f t="shared" si="4"/>
         <v>9.0505018000442458E-2</v>
       </c>
@@ -11161,10 +11166,10 @@
         <v>10</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -11183,7 +11188,7 @@
       <c r="F285" s="1">
         <v>183.07</v>
       </c>
-      <c r="G285" s="21">
+      <c r="G285" s="27">
         <f t="shared" si="4"/>
         <v>0.34870448112500785</v>
       </c>
@@ -11194,10 +11199,10 @@
         <v>10</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -11216,7 +11221,7 @@
       <c r="F286" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="G286" s="21">
+      <c r="G286" s="27">
         <f t="shared" si="4"/>
         <v>4.7177358149991182E-2</v>
       </c>
@@ -11227,10 +11232,10 @@
         <v>8</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -11249,7 +11254,7 @@
       <c r="F287" s="1">
         <v>35.979999999999997</v>
       </c>
-      <c r="G287" s="21">
+      <c r="G287" s="27">
         <f t="shared" si="4"/>
         <v>8.138787748982651E-2</v>
       </c>
@@ -11260,10 +11265,10 @@
         <v>9</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -11282,7 +11287,7 @@
       <c r="F288" s="1">
         <v>18.36</v>
       </c>
-      <c r="G288" s="21">
+      <c r="G288" s="27">
         <f t="shared" si="4"/>
         <v>6.9946578300822751E-2</v>
       </c>
@@ -11293,10 +11298,10 @@
         <v>7</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -11315,7 +11320,7 @@
       <c r="F289" s="1">
         <v>21.28</v>
       </c>
-      <c r="G289" s="21">
+      <c r="G289" s="27">
         <f t="shared" si="4"/>
         <v>3.9515359316201905E-2</v>
       </c>
@@ -11326,10 +11331,10 @@
         <v>8</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -11348,7 +11353,7 @@
       <c r="F290" s="1">
         <v>13.49</v>
       </c>
-      <c r="G290" s="21">
+      <c r="G290" s="27">
         <f t="shared" si="4"/>
         <v>2.1674943283898407E-2</v>
       </c>
@@ -11359,10 +11364,10 @@
         <v>7</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -11381,7 +11386,7 @@
       <c r="F291" s="1">
         <v>6.57</v>
       </c>
-      <c r="G291" s="21">
+      <c r="G291" s="27">
         <f t="shared" si="4"/>
         <v>1.5950579475169639E-2</v>
       </c>
@@ -11392,10 +11397,10 @@
         <v>7</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -11414,7 +11419,7 @@
       <c r="F292" s="1">
         <v>14.43</v>
       </c>
-      <c r="G292" s="21">
+      <c r="G292" s="27">
         <f t="shared" si="4"/>
         <v>2.6508753042983942E-2</v>
       </c>
@@ -11425,10 +11430,10 @@
         <v>7</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -11447,7 +11452,7 @@
       <c r="F293" s="1">
         <v>33.31</v>
       </c>
-      <c r="G293" s="21">
+      <c r="G293" s="27">
         <f t="shared" si="4"/>
         <v>4.9971682713129226E-2</v>
       </c>
@@ -11458,10 +11463,10 @@
         <v>9</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -11480,7 +11485,7 @@
       <c r="F294" s="1">
         <v>38.869999999999997</v>
       </c>
-      <c r="G294" s="21">
+      <c r="G294" s="27">
         <f t="shared" si="4"/>
         <v>8.1165190385769595E-2</v>
       </c>
@@ -11491,10 +11496,10 @@
         <v>9</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -11513,7 +11518,7 @@
       <c r="F295" s="1">
         <v>7.91</v>
       </c>
-      <c r="G295" s="21">
+      <c r="G295" s="27">
         <f t="shared" si="4"/>
         <v>2.2606959175599555E-2</v>
       </c>
@@ -11524,10 +11529,10 @@
         <v>6</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -11546,7 +11551,7 @@
       <c r="F296" s="1">
         <v>52.55</v>
       </c>
-      <c r="G296" s="21">
+      <c r="G296" s="27">
         <f t="shared" si="4"/>
         <v>6.5681444991789822E-2</v>
       </c>
@@ -11557,10 +11562,10 @@
         <v>9</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>14</v>
       </c>
@@ -11579,7 +11584,7 @@
       <c r="F297" s="1">
         <v>407.28</v>
       </c>
-      <c r="G297" s="21">
+      <c r="G297" s="27">
         <f t="shared" si="4"/>
         <v>0.84735724763787779</v>
       </c>
@@ -11590,10 +11595,10 @@
         <v>9</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>14</v>
       </c>
@@ -11612,7 +11617,7 @@
       <c r="F298" s="1">
         <v>28.98</v>
       </c>
-      <c r="G298" s="21">
+      <c r="G298" s="27">
         <f t="shared" si="4"/>
         <v>8.3705357142857137E-2</v>
       </c>
@@ -11623,10 +11628,10 @@
         <v>8</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>14</v>
       </c>
@@ -11645,7 +11650,7 @@
       <c r="F299" s="1">
         <v>103.21</v>
       </c>
-      <c r="G299" s="21">
+      <c r="G299" s="27">
         <f t="shared" si="4"/>
         <v>0.12462809046946173</v>
       </c>
@@ -11656,10 +11661,10 @@
         <v>10</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>14</v>
       </c>
@@ -11678,7 +11683,7 @@
       <c r="F300" s="1">
         <v>227.02</v>
       </c>
-      <c r="G300" s="21">
+      <c r="G300" s="27">
         <f t="shared" si="4"/>
         <v>0.34988938112642848</v>
       </c>
@@ -11689,10 +11694,10 @@
         <v>10</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>14</v>
       </c>
@@ -11711,7 +11716,7 @@
       <c r="F301" s="1">
         <v>64.22</v>
       </c>
-      <c r="G301" s="21">
+      <c r="G301" s="27">
         <f t="shared" si="4"/>
         <v>0.15887685253766612</v>
       </c>
@@ -11722,10 +11727,10 @@
         <v>10</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>7</v>
       </c>
@@ -11744,7 +11749,7 @@
       <c r="F302" s="1">
         <v>126.27</v>
       </c>
-      <c r="G302" s="21">
+      <c r="G302" s="27">
         <f t="shared" si="4"/>
         <v>0.29884158136097894</v>
       </c>
@@ -11755,10 +11760,10 @@
         <v>10</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>7</v>
       </c>
@@ -11777,7 +11782,7 @@
       <c r="F303" s="1">
         <v>55.25</v>
       </c>
-      <c r="G303" s="21">
+      <c r="G303" s="27">
         <f t="shared" si="4"/>
         <v>0.20391248865325667</v>
       </c>
@@ -11788,10 +11793,10 @@
         <v>9</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>7</v>
       </c>
@@ -11810,7 +11815,7 @@
       <c r="F304" s="1">
         <v>34.74</v>
       </c>
-      <c r="G304" s="21">
+      <c r="G304" s="27">
         <f t="shared" si="4"/>
         <v>8.3741703368277395E-2</v>
       </c>
@@ -11821,10 +11826,10 @@
         <v>9</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +11848,7 @@
       <c r="F305" s="1">
         <v>52.62</v>
       </c>
-      <c r="G305" s="21">
+      <c r="G305" s="27">
         <f t="shared" si="4"/>
         <v>9.9748460404198117E-2</v>
       </c>
@@ -11854,10 +11859,10 @@
         <v>9</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>7</v>
       </c>
@@ -11876,7 +11881,7 @@
       <c r="F306" s="1">
         <v>59.9</v>
       </c>
-      <c r="G306" s="21">
+      <c r="G306" s="27">
         <f t="shared" si="4"/>
         <v>0.13906321314468278</v>
       </c>
@@ -11887,10 +11892,10 @@
         <v>10</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>7</v>
       </c>
@@ -11909,7 +11914,7 @@
       <c r="F307" s="1">
         <v>68.849999999999994</v>
       </c>
-      <c r="G307" s="21">
+      <c r="G307" s="27">
         <f t="shared" si="4"/>
         <v>0.14208116113096605</v>
       </c>
@@ -11920,10 +11925,10 @@
         <v>10</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>7</v>
       </c>
@@ -11942,7 +11947,7 @@
       <c r="F308" s="1">
         <v>13.85</v>
       </c>
-      <c r="G308" s="21">
+      <c r="G308" s="27">
         <f t="shared" si="4"/>
         <v>5.4412346656113969E-2</v>
       </c>
@@ -11953,10 +11958,10 @@
         <v>6</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>7</v>
       </c>
@@ -11975,7 +11980,7 @@
       <c r="F309" s="1">
         <v>39.770000000000003</v>
       </c>
-      <c r="G309" s="21">
+      <c r="G309" s="27">
         <f t="shared" si="4"/>
         <v>8.5214361460384788E-2</v>
       </c>
@@ -11986,10 +11991,10 @@
         <v>9</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>7</v>
       </c>
@@ -12008,7 +12013,7 @@
       <c r="F310" s="1">
         <v>2.61</v>
       </c>
-      <c r="G310" s="21">
+      <c r="G310" s="27">
         <f t="shared" si="4"/>
         <v>3.7328754339467689E-2</v>
       </c>
@@ -12019,10 +12024,10 @@
         <v>5</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>7</v>
       </c>
@@ -12041,7 +12046,7 @@
       <c r="F311" s="1">
         <v>41.85</v>
       </c>
-      <c r="G311" s="21">
+      <c r="G311" s="27">
         <f t="shared" si="4"/>
         <v>5.9782868621167919E-2</v>
       </c>
@@ -12052,10 +12057,10 @@
         <v>9</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>7</v>
       </c>
@@ -12074,7 +12079,7 @@
       <c r="F312" s="1">
         <v>37.36</v>
       </c>
-      <c r="G312" s="21">
+      <c r="G312" s="27">
         <f t="shared" si="4"/>
         <v>9.6063530014516271E-2</v>
       </c>
@@ -12085,10 +12090,10 @@
         <v>9</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>21</v>
       </c>
@@ -12107,7 +12112,7 @@
       <c r="F313" s="1">
         <v>142.72</v>
       </c>
-      <c r="G313" s="21">
+      <c r="G313" s="27">
         <f t="shared" si="4"/>
         <v>0.26675684716602899</v>
       </c>
@@ -12118,10 +12123,10 @@
         <v>10</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>21</v>
       </c>
@@ -12140,7 +12145,7 @@
       <c r="F314" s="1">
         <v>0</v>
       </c>
-      <c r="G314" s="21">
+      <c r="G314" s="27">
         <f t="shared" si="4"/>
         <v>3.9298289738430581E-2</v>
       </c>
@@ -12151,10 +12156,10 @@
         <v>4</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>21</v>
       </c>
@@ -12173,7 +12178,7 @@
       <c r="F315" s="1">
         <v>82.94</v>
       </c>
-      <c r="G315" s="21">
+      <c r="G315" s="27">
         <f t="shared" si="4"/>
         <v>0.15008491646589517</v>
       </c>
@@ -12184,10 +12189,10 @@
         <v>10</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>21</v>
       </c>
@@ -12206,7 +12211,7 @@
       <c r="F316" s="1">
         <v>24.63</v>
       </c>
-      <c r="G316" s="21">
+      <c r="G316" s="27">
         <f t="shared" si="4"/>
         <v>3.8111916130331019E-2</v>
       </c>
@@ -12217,10 +12222,10 @@
         <v>8</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>21</v>
       </c>
@@ -12239,7 +12244,7 @@
       <c r="F317" s="1">
         <v>32.869999999999997</v>
       </c>
-      <c r="G317" s="21">
+      <c r="G317" s="27">
         <f t="shared" si="4"/>
         <v>5.1650952255737952E-2</v>
       </c>
@@ -12250,10 +12255,10 @@
         <v>9</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>21</v>
       </c>
@@ -12272,7 +12277,7 @@
       <c r="F318" s="1">
         <v>13.66</v>
       </c>
-      <c r="G318" s="21">
+      <c r="G318" s="27">
         <f t="shared" si="4"/>
         <v>1.7074753269815255E-2</v>
       </c>
@@ -12283,10 +12288,10 @@
         <v>7</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>21</v>
       </c>
@@ -12305,7 +12310,7 @@
       <c r="F319" s="1">
         <v>86.14</v>
       </c>
-      <c r="G319" s="21">
+      <c r="G319" s="27">
         <f t="shared" si="4"/>
         <v>0.18843206575381802</v>
       </c>
@@ -12316,10 +12321,10 @@
         <v>10</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>21</v>
       </c>
@@ -12338,7 +12343,7 @@
       <c r="F320" s="1">
         <v>47.97</v>
       </c>
-      <c r="G320" s="21">
+      <c r="G320" s="27">
         <f t="shared" si="4"/>
         <v>0.10849331338579081</v>
       </c>
@@ -12349,10 +12354,10 @@
         <v>9</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>21</v>
       </c>
@@ -12371,7 +12376,7 @@
       <c r="F321" s="1">
         <v>27.23</v>
       </c>
-      <c r="G321" s="21">
+      <c r="G321" s="27">
         <f t="shared" si="4"/>
         <v>5.3491798734675813E-2</v>
       </c>
@@ -12382,10 +12387,10 @@
         <v>9</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>21</v>
       </c>
@@ -12404,7 +12409,7 @@
       <c r="F322" s="1">
         <v>38.1</v>
       </c>
-      <c r="G322" s="21">
+      <c r="G322" s="27">
         <f t="shared" si="4"/>
         <v>0.10340923934340576</v>
       </c>
@@ -12415,10 +12420,10 @@
         <v>9</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>21</v>
       </c>
@@ -12437,7 +12442,7 @@
       <c r="F323" s="1">
         <v>25.6</v>
       </c>
-      <c r="G323" s="21">
+      <c r="G323" s="27">
         <f t="shared" si="4"/>
         <v>4.8767106586607337E-2</v>
       </c>
@@ -12448,10 +12453,10 @@
         <v>9</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>19</v>
       </c>
@@ -12470,7 +12475,7 @@
       <c r="F324" s="1">
         <v>44.56</v>
       </c>
-      <c r="G324" s="21">
+      <c r="G324" s="27">
         <f t="shared" si="4"/>
         <v>0.12995830725326488</v>
       </c>
@@ -12481,10 +12486,10 @@
         <v>8</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>19</v>
       </c>
@@ -12503,7 +12508,7 @@
       <c r="F325" s="1">
         <v>5.26</v>
       </c>
-      <c r="G325" s="21">
+      <c r="G325" s="27">
         <f t="shared" si="4"/>
         <v>1.9731649565903713E-2</v>
       </c>
@@ -12514,10 +12519,10 @@
         <v>6</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>19</v>
       </c>
@@ -12536,7 +12541,7 @@
       <c r="F326" s="1">
         <v>0</v>
       </c>
-      <c r="G326" s="21">
+      <c r="G326" s="27">
         <f t="shared" si="4"/>
         <v>4.0941099404989356E-2</v>
       </c>
@@ -12547,10 +12552,10 @@
         <v>4</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>19</v>
       </c>
@@ -12569,7 +12574,7 @@
       <c r="F327" s="1">
         <v>0</v>
       </c>
-      <c r="G327" s="21">
+      <c r="G327" s="27">
         <f t="shared" si="4"/>
         <v>8.7760869183648397E-3</v>
       </c>
@@ -12580,10 +12585,10 @@
         <v>4</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>19</v>
       </c>
@@ -12602,7 +12607,7 @@
       <c r="F328" s="1">
         <v>0</v>
       </c>
-      <c r="G328" s="21">
+      <c r="G328" s="27">
         <f t="shared" si="4"/>
         <v>1.6676450184108009E-2</v>
       </c>
@@ -12613,10 +12618,10 @@
         <v>4</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>19</v>
       </c>
@@ -12635,7 +12640,7 @@
       <c r="F329" s="1">
         <v>10.68</v>
       </c>
-      <c r="G329" s="21">
+      <c r="G329" s="27">
         <f t="shared" ref="G329:G347" si="5">((D329/C329)/14)*1000</f>
         <v>3.559098836174681E-2</v>
       </c>
@@ -12646,10 +12651,10 @@
         <v>6</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>19</v>
       </c>
@@ -12668,7 +12673,7 @@
       <c r="F330" s="1">
         <v>34.880000000000003</v>
       </c>
-      <c r="G330" s="21">
+      <c r="G330" s="27">
         <f t="shared" si="5"/>
         <v>6.0730636270204613E-2</v>
       </c>
@@ -12679,10 +12684,10 @@
         <v>9</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>20</v>
       </c>
@@ -12701,7 +12706,7 @@
       <c r="F331" s="1">
         <v>51.32</v>
       </c>
-      <c r="G331" s="21">
+      <c r="G331" s="27">
         <f t="shared" si="5"/>
         <v>0.12176440551474921</v>
       </c>
@@ -12712,10 +12717,10 @@
         <v>9</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>20</v>
       </c>
@@ -12734,7 +12739,7 @@
       <c r="F332" s="1">
         <v>23.82</v>
       </c>
-      <c r="G332" s="21">
+      <c r="G332" s="27">
         <f t="shared" si="5"/>
         <v>0.13894954146651314</v>
       </c>
@@ -12745,10 +12750,10 @@
         <v>6</v>
       </c>
       <c r="J332" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>20</v>
       </c>
@@ -12767,7 +12772,7 @@
       <c r="F333" s="1">
         <v>29.21</v>
       </c>
-      <c r="G333" s="21">
+      <c r="G333" s="27">
         <f t="shared" si="5"/>
         <v>4.1727712764970976E-2</v>
       </c>
@@ -12778,10 +12783,10 @@
         <v>9</v>
       </c>
       <c r="J333" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>20</v>
       </c>
@@ -12800,7 +12805,7 @@
       <c r="F334" s="1">
         <v>5.77</v>
       </c>
-      <c r="G334" s="21">
+      <c r="G334" s="27">
         <f t="shared" si="5"/>
         <v>8.2471506094644292E-2</v>
       </c>
@@ -12811,10 +12816,10 @@
         <v>5</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>20</v>
       </c>
@@ -12833,7 +12838,7 @@
       <c r="F335" s="1">
         <v>57.95</v>
       </c>
-      <c r="G335" s="21">
+      <c r="G335" s="27">
         <f t="shared" si="5"/>
         <v>0.24145257871354067</v>
       </c>
@@ -12844,10 +12849,10 @@
         <v>9</v>
       </c>
       <c r="J335" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12871,7 @@
       <c r="F336" s="1">
         <v>33.65</v>
       </c>
-      <c r="G336" s="21">
+      <c r="G336" s="27">
         <f t="shared" si="5"/>
         <v>5.6075814501205634E-2</v>
       </c>
@@ -12877,10 +12882,10 @@
         <v>9</v>
       </c>
       <c r="J336" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>20</v>
       </c>
@@ -12899,7 +12904,7 @@
       <c r="F337" s="1">
         <v>30.75</v>
       </c>
-      <c r="G337" s="21">
+      <c r="G337" s="27">
         <f t="shared" si="5"/>
         <v>0.11347164672982035</v>
       </c>
@@ -12910,10 +12915,10 @@
         <v>8</v>
       </c>
       <c r="J337" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>20</v>
       </c>
@@ -12932,7 +12937,7 @@
       <c r="F338" s="1">
         <v>104.38</v>
       </c>
-      <c r="G338" s="21">
+      <c r="G338" s="27">
         <f t="shared" si="5"/>
         <v>0.1597716330791189</v>
       </c>
@@ -12943,10 +12948,10 @@
         <v>10</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>20</v>
       </c>
@@ -12965,7 +12970,7 @@
       <c r="F339" s="1">
         <v>24.18</v>
       </c>
-      <c r="G339" s="21">
+      <c r="G339" s="27">
         <f t="shared" si="5"/>
         <v>5.1809892235424156E-2</v>
       </c>
@@ -12976,10 +12981,10 @@
         <v>8</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>20</v>
       </c>
@@ -12998,7 +13003,7 @@
       <c r="F340" s="1">
         <v>0</v>
       </c>
-      <c r="G340" s="21">
+      <c r="G340" s="27">
         <f t="shared" si="5"/>
         <v>2.072395689416966E-2</v>
       </c>
@@ -13009,10 +13014,10 @@
         <v>4</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>20</v>
       </c>
@@ -13031,7 +13036,7 @@
       <c r="F341" s="1">
         <v>5.55</v>
       </c>
-      <c r="G341" s="21">
+      <c r="G341" s="27">
         <f t="shared" si="5"/>
         <v>3.1704639577694198E-2</v>
       </c>
@@ -13042,10 +13047,10 @@
         <v>5</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>20</v>
       </c>
@@ -13064,7 +13069,7 @@
       <c r="F342" s="1">
         <v>35.58</v>
       </c>
-      <c r="G342" s="21">
+      <c r="G342" s="27">
         <f t="shared" si="5"/>
         <v>6.4699792960662528E-2</v>
       </c>
@@ -13075,10 +13080,10 @@
         <v>9</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>20</v>
       </c>
@@ -13097,7 +13102,7 @@
       <c r="F343" s="1">
         <v>27.47</v>
       </c>
-      <c r="G343" s="21">
+      <c r="G343" s="27">
         <f t="shared" si="5"/>
         <v>4.905640014324468E-2</v>
       </c>
@@ -13108,10 +13113,10 @@
         <v>9</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>20</v>
       </c>
@@ -13130,7 +13135,7 @@
       <c r="F344" s="1">
         <v>7.94</v>
       </c>
-      <c r="G344" s="21">
+      <c r="G344" s="27">
         <f t="shared" si="5"/>
         <v>2.8373945907909523E-2</v>
       </c>
@@ -13141,10 +13146,10 @@
         <v>6</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>20</v>
       </c>
@@ -13163,7 +13168,7 @@
       <c r="F345" s="1">
         <v>9.0399999999999991</v>
       </c>
-      <c r="G345" s="21">
+      <c r="G345" s="27">
         <f t="shared" si="5"/>
         <v>1.9380095350069123E-2</v>
       </c>
@@ -13174,10 +13179,10 @@
         <v>7</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>20</v>
       </c>
@@ -13196,7 +13201,7 @@
       <c r="F346" s="1">
         <v>21.76</v>
       </c>
-      <c r="G346" s="21">
+      <c r="G346" s="27">
         <f t="shared" si="5"/>
         <v>6.2174877204617514E-2</v>
       </c>
@@ -13207,10 +13212,10 @@
         <v>7</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>20</v>
       </c>
@@ -13229,7 +13234,7 @@
       <c r="F347" s="1">
         <v>12.87</v>
       </c>
-      <c r="G347" s="21">
+      <c r="G347" s="27">
         <f t="shared" si="5"/>
         <v>5.2090674543593764E-2</v>
       </c>
@@ -13240,48 +13245,48 @@
         <v>6</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" s="17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="24" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B354" s="23"/>
-      <c r="C354" s="23"/>
-      <c r="D354" s="23"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B355" s="17"/>
-      <c r="C355" s="17"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
-      <c r="B356" s="17"/>
-      <c r="C356" s="17"/>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B355" s="16"/>
+      <c r="C355" s="16"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="13"/>
+      <c r="B356" s="16"/>
+      <c r="C356" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:J347" xr:uid="{32EF9E84-72E2-4388-8C40-53532CAD1340}"/>
